--- a/extras/Library speed comparisons.xlsx
+++ b/extras/Library speed comparisons.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajwal Bhattaram\Documents\GitHub\SPIFlash\extras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajwal Bhattaram\Dropbox\Genesis share\Arduino\sketches\libraries\SPIFlash\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="465" windowWidth="28800" windowHeight="17595" tabRatio="500"/>
+    <workbookView xWindow="8940" yWindow="465" windowWidth="28800" windowHeight="17595" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino Due" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="148">
   <si>
     <t>Function</t>
   </si>
@@ -429,6 +429,54 @@
   </si>
   <si>
     <t>204 µs</t>
+  </si>
+  <si>
+    <t>v2.6.0</t>
+  </si>
+  <si>
+    <t>200 µs</t>
+  </si>
+  <si>
+    <t>936 µs</t>
+  </si>
+  <si>
+    <t>416 µs</t>
+  </si>
+  <si>
+    <t>432 µs</t>
+  </si>
+  <si>
+    <t>216 µs</t>
+  </si>
+  <si>
+    <t>512 µs</t>
+  </si>
+  <si>
+    <t>7040 µs</t>
+  </si>
+  <si>
+    <t>1616 µs</t>
+  </si>
+  <si>
+    <t>4536 µs</t>
+  </si>
+  <si>
+    <t>1544 µs</t>
+  </si>
+  <si>
+    <t>48 µs</t>
+  </si>
+  <si>
+    <t>15.1730 ms</t>
+  </si>
+  <si>
+    <t>36.9280 ms</t>
+  </si>
+  <si>
+    <t>44.4770 ms</t>
+  </si>
+  <si>
+    <t>1.2855 s</t>
   </si>
 </sst>
 </file>
@@ -1354,6 +1402,160 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,160 +1610,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1854,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1865,94 +1913,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="154" t="s">
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="158" t="s">
+      <c r="A4" s="204"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="160"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="212"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -1974,7 +2022,9 @@
       <c r="I5" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="141"/>
+      <c r="J5" s="141" t="s">
+        <v>132</v>
+      </c>
       <c r="K5" s="141"/>
       <c r="L5" s="141"/>
       <c r="M5" s="141"/>
@@ -1985,13 +2035,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="196">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -2015,9 +2065,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -2039,9 +2089,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -2063,9 +2113,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -2087,13 +2137,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="192">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -2117,9 +2167,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="192"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -2141,9 +2191,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="192"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -2165,9 +2215,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="161"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -2189,13 +2239,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="164">
+      <c r="C14" s="194">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -2219,9 +2269,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -2243,9 +2293,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -2267,9 +2317,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -2291,13 +2341,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="166">
+      <c r="C18" s="188">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -2321,9 +2371,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="188"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -2345,9 +2395,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -2369,9 +2419,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -2393,13 +2443,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="168" t="s">
+      <c r="B22" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="168">
+      <c r="C22" s="190">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -2423,9 +2473,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="167"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -2447,9 +2497,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -2471,9 +2521,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -2495,13 +2545,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="184">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -2525,9 +2575,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -2549,9 +2599,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="169"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -2573,9 +2623,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="169"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -2597,13 +2647,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="172">
+      <c r="C30" s="186">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -2627,9 +2677,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="171"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -2651,9 +2701,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
+      <c r="A32" s="185"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -2675,9 +2725,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
+      <c r="A33" s="185"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -2699,13 +2749,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="173" t="s">
+      <c r="A34" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="175" t="s">
+      <c r="C34" s="179" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -2729,9 +2779,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="175"/>
+      <c r="A35" s="177"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -2753,9 +2803,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="175"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="179"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -2777,9 +2827,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
+      <c r="A37" s="177"/>
+      <c r="B37" s="178"/>
+      <c r="C37" s="178"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -2801,13 +2851,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="176" t="s">
+      <c r="A38" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="178" t="s">
+      <c r="C38" s="182" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -2831,9 +2881,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="176"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="178"/>
+      <c r="A39" s="180"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="182"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -2855,9 +2905,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="176"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="178"/>
+      <c r="A40" s="180"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="182"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -2879,9 +2929,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="176"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
+      <c r="A41" s="180"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -2903,13 +2953,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="182" t="s">
+      <c r="C42" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -2933,9 +2983,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="179"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="182"/>
+      <c r="A43" s="168"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -2957,9 +3007,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="182"/>
+      <c r="A44" s="168"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -2981,9 +3031,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="180"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
+      <c r="A45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -3005,56 +3055,56 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="183" t="s">
+      <c r="A46" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="188"/>
-      <c r="G46" s="188"/>
-      <c r="H46" s="188"/>
-      <c r="I46" s="192" t="s">
+      <c r="B46" s="173"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="188"/>
-      <c r="K46" s="188"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="188"/>
-      <c r="N46" s="188"/>
-      <c r="O46" s="188"/>
-      <c r="P46" s="188"/>
-      <c r="Q46" s="188"/>
-      <c r="R46" s="190"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
+      <c r="Q46" s="147"/>
+      <c r="R46" s="164"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="183"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="187"/>
-      <c r="F47" s="189"/>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="189"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="189"/>
-      <c r="M47" s="189"/>
-      <c r="N47" s="189"/>
-      <c r="O47" s="189"/>
-      <c r="P47" s="189"/>
-      <c r="Q47" s="189"/>
-      <c r="R47" s="191"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="148"/>
+      <c r="K47" s="148"/>
+      <c r="L47" s="148"/>
+      <c r="M47" s="148"/>
+      <c r="N47" s="148"/>
+      <c r="O47" s="148"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="148"/>
+      <c r="R47" s="165"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="197" t="s">
+      <c r="A48" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="198"/>
-      <c r="C48" s="198"/>
-      <c r="D48" s="199"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -3073,12 +3123,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="200" t="s">
+      <c r="A49" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="201"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="202"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="154"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -3097,12 +3147,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="203" t="s">
+      <c r="A50" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="204"/>
-      <c r="C50" s="204"/>
-      <c r="D50" s="205"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="157"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -3121,12 +3171,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="206" t="s">
+      <c r="A51" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="207"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="160"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -3145,12 +3195,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="209" t="s">
+      <c r="A52" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="210"/>
-      <c r="C52" s="210"/>
-      <c r="D52" s="211"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -3169,12 +3219,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="194" t="s">
+      <c r="A53" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="195"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="196"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
@@ -3195,6 +3245,51 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="N46:N47"/>
@@ -3206,51 +3301,6 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3260,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3271,94 +3321,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="154" t="s">
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="158" t="s">
+      <c r="A4" s="204"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="160"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="212"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -3380,7 +3430,9 @@
       <c r="I5" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="141"/>
+      <c r="J5" s="141" t="s">
+        <v>132</v>
+      </c>
       <c r="K5" s="141"/>
       <c r="L5" s="141"/>
       <c r="M5" s="141"/>
@@ -3391,13 +3443,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="196">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -3407,10 +3459,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="212" t="s">
+      <c r="I6" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3421,9 +3475,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -3434,7 +3488,9 @@
       <c r="I7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -3445,9 +3501,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -3458,7 +3514,9 @@
       <c r="I8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -3469,9 +3527,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -3482,7 +3540,9 @@
       <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -3493,13 +3553,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="192">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -3512,7 +3572,9 @@
       <c r="I10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -3523,9 +3585,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="192"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -3536,7 +3598,9 @@
       <c r="I11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -3547,9 +3611,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="192"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -3560,7 +3624,9 @@
       <c r="I12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -3571,9 +3637,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="161"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -3584,7 +3650,9 @@
       <c r="I13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -3595,13 +3663,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="164">
+      <c r="C14" s="194">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -3614,7 +3682,9 @@
       <c r="I14" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
@@ -3625,9 +3695,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -3638,7 +3708,9 @@
       <c r="I15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3649,9 +3721,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3734,9 @@
       <c r="I16" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3673,9 +3747,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -3686,7 +3760,9 @@
       <c r="I17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -3697,13 +3773,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="166">
+      <c r="C18" s="188">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -3716,7 +3792,9 @@
       <c r="I18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -3727,9 +3805,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="188"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -3740,7 +3818,9 @@
       <c r="I19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
@@ -3751,9 +3831,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -3764,7 +3844,9 @@
       <c r="I20" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
@@ -3775,9 +3857,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -3788,7 +3870,9 @@
       <c r="I21" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -3799,13 +3883,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="168" t="s">
+      <c r="B22" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="168">
+      <c r="C22" s="190">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -3818,7 +3902,9 @@
       <c r="I22" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="26"/>
+      <c r="J22" s="26" t="s">
+        <v>82</v>
+      </c>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
@@ -3829,9 +3915,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="167"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -3842,7 +3928,9 @@
       <c r="I23" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="28"/>
+      <c r="J23" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
@@ -3853,9 +3941,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -3866,7 +3954,9 @@
       <c r="I24" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="28"/>
+      <c r="J24" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
@@ -3877,9 +3967,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -3890,7 +3980,9 @@
       <c r="I25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="30"/>
+      <c r="J25" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
@@ -3901,13 +3993,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="184">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -3920,7 +4012,9 @@
       <c r="I26" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="32"/>
+      <c r="J26" s="32" t="s">
+        <v>82</v>
+      </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
@@ -3931,9 +4025,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -3944,7 +4038,9 @@
       <c r="I27" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="34"/>
+      <c r="J27" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
@@ -3955,9 +4051,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="169"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -3968,7 +4064,9 @@
       <c r="I28" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="34"/>
+      <c r="J28" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -3979,9 +4077,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="169"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -3992,7 +4090,9 @@
       <c r="I29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="36"/>
+      <c r="J29" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
@@ -4003,13 +4103,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="172">
+      <c r="C30" s="186">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -4022,7 +4122,9 @@
       <c r="I30" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="38"/>
+      <c r="J30" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
@@ -4033,9 +4135,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="171"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -4046,7 +4148,9 @@
       <c r="I31" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
@@ -4057,9 +4161,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
+      <c r="A32" s="185"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -4070,7 +4174,9 @@
       <c r="I32" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="J32" s="40"/>
+      <c r="J32" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="K32" s="40"/>
       <c r="L32" s="40"/>
       <c r="M32" s="40"/>
@@ -4081,9 +4187,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
+      <c r="A33" s="185"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -4094,7 +4200,9 @@
       <c r="I33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="54"/>
+      <c r="J33" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="K33" s="54"/>
       <c r="L33" s="54"/>
       <c r="M33" s="54"/>
@@ -4105,13 +4213,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="173" t="s">
+      <c r="A34" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="175" t="s">
+      <c r="C34" s="179" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -4124,7 +4232,9 @@
       <c r="I34" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="42"/>
+      <c r="J34" s="42" t="s">
+        <v>134</v>
+      </c>
       <c r="K34" s="42"/>
       <c r="L34" s="42"/>
       <c r="M34" s="42"/>
@@ -4135,9 +4245,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="175"/>
+      <c r="A35" s="177"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -4148,7 +4258,9 @@
       <c r="I35" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="J35" s="44"/>
+      <c r="J35" s="44" t="s">
+        <v>135</v>
+      </c>
       <c r="K35" s="44"/>
       <c r="L35" s="44"/>
       <c r="M35" s="44"/>
@@ -4159,9 +4271,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="175"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="179"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -4172,7 +4284,9 @@
       <c r="I36" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="J36" s="44"/>
+      <c r="J36" s="44" t="s">
+        <v>136</v>
+      </c>
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
       <c r="M36" s="44"/>
@@ -4183,9 +4297,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
+      <c r="A37" s="177"/>
+      <c r="B37" s="178"/>
+      <c r="C37" s="178"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -4196,7 +4310,9 @@
       <c r="I37" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J37" s="56"/>
+      <c r="J37" s="56" t="s">
+        <v>86</v>
+      </c>
       <c r="K37" s="56"/>
       <c r="L37" s="56"/>
       <c r="M37" s="56"/>
@@ -4207,13 +4323,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="176" t="s">
+      <c r="A38" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="178" t="s">
+      <c r="C38" s="182" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -4226,7 +4342,9 @@
       <c r="I38" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="J38" s="46"/>
+      <c r="J38" s="46" t="s">
+        <v>87</v>
+      </c>
       <c r="K38" s="46"/>
       <c r="L38" s="46"/>
       <c r="M38" s="46"/>
@@ -4237,9 +4355,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="176"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="178"/>
+      <c r="A39" s="180"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="182"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -4250,7 +4368,9 @@
       <c r="I39" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="48"/>
+      <c r="J39" s="48" t="s">
+        <v>137</v>
+      </c>
       <c r="K39" s="48"/>
       <c r="L39" s="48"/>
       <c r="M39" s="48"/>
@@ -4261,9 +4381,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="176"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="178"/>
+      <c r="A40" s="180"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="182"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -4274,7 +4394,9 @@
       <c r="I40" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="J40" s="48"/>
+      <c r="J40" s="48" t="s">
+        <v>138</v>
+      </c>
       <c r="K40" s="48"/>
       <c r="L40" s="48"/>
       <c r="M40" s="48"/>
@@ -4285,9 +4407,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="176"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
+      <c r="A41" s="180"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -4298,7 +4420,9 @@
       <c r="I41" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="J41" s="58"/>
+      <c r="J41" s="58" t="s">
+        <v>88</v>
+      </c>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
@@ -4309,13 +4433,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="182" t="s">
+      <c r="C42" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -4328,7 +4452,9 @@
       <c r="I42" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="J42" s="50"/>
+      <c r="J42" s="50" t="s">
+        <v>139</v>
+      </c>
       <c r="K42" s="50"/>
       <c r="L42" s="50"/>
       <c r="M42" s="50"/>
@@ -4339,9 +4465,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="179"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="182"/>
+      <c r="A43" s="168"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -4352,7 +4478,9 @@
       <c r="I43" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="J43" s="52"/>
+      <c r="J43" s="52" t="s">
+        <v>140</v>
+      </c>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
       <c r="M43" s="52"/>
@@ -4363,9 +4491,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="182"/>
+      <c r="A44" s="168"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -4376,7 +4504,9 @@
       <c r="I44" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="J44" s="52"/>
+      <c r="J44" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="K44" s="52"/>
       <c r="L44" s="52"/>
       <c r="M44" s="52"/>
@@ -4387,9 +4517,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="180"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
+      <c r="A45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -4400,7 +4530,9 @@
       <c r="I45" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="J45" s="52"/>
+      <c r="J45" s="52" t="s">
+        <v>142</v>
+      </c>
       <c r="K45" s="52"/>
       <c r="L45" s="52"/>
       <c r="M45" s="52"/>
@@ -4411,56 +4543,58 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="183" t="s">
+      <c r="A46" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="188"/>
-      <c r="G46" s="188"/>
-      <c r="H46" s="188"/>
-      <c r="I46" s="192" t="s">
+      <c r="B46" s="173"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="188"/>
-      <c r="K46" s="188"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="188"/>
-      <c r="N46" s="188"/>
-      <c r="O46" s="188"/>
-      <c r="P46" s="188"/>
-      <c r="Q46" s="188"/>
-      <c r="R46" s="190"/>
+      <c r="J46" s="166" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
+      <c r="Q46" s="147"/>
+      <c r="R46" s="164"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="183"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="187"/>
-      <c r="F47" s="189"/>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="189"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="189"/>
-      <c r="M47" s="189"/>
-      <c r="N47" s="189"/>
-      <c r="O47" s="189"/>
-      <c r="P47" s="189"/>
-      <c r="Q47" s="189"/>
-      <c r="R47" s="191"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="167"/>
+      <c r="K47" s="148"/>
+      <c r="L47" s="148"/>
+      <c r="M47" s="148"/>
+      <c r="N47" s="148"/>
+      <c r="O47" s="148"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="148"/>
+      <c r="R47" s="165"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="197" t="s">
+      <c r="A48" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="198"/>
-      <c r="C48" s="198"/>
-      <c r="D48" s="199"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -4468,7 +4602,9 @@
       <c r="I48" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="J48" s="65"/>
+      <c r="J48" s="65" t="s">
+        <v>36</v>
+      </c>
       <c r="K48" s="65"/>
       <c r="L48" s="65"/>
       <c r="M48" s="65"/>
@@ -4479,12 +4615,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="200" t="s">
+      <c r="A49" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="201"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="202"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="154"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -4492,7 +4628,9 @@
       <c r="I49" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="63"/>
+      <c r="J49" s="63" t="s">
+        <v>143</v>
+      </c>
       <c r="K49" s="63"/>
       <c r="L49" s="63"/>
       <c r="M49" s="63"/>
@@ -4503,12 +4641,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="203" t="s">
+      <c r="A50" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="204"/>
-      <c r="C50" s="204"/>
-      <c r="D50" s="205"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="157"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -4516,7 +4654,9 @@
       <c r="I50" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="J50" s="67"/>
+      <c r="J50" s="67" t="s">
+        <v>144</v>
+      </c>
       <c r="K50" s="67"/>
       <c r="L50" s="67"/>
       <c r="M50" s="67"/>
@@ -4527,12 +4667,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="206" t="s">
+      <c r="A51" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="207"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="160"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -4540,7 +4680,9 @@
       <c r="I51" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="J51" s="69"/>
+      <c r="J51" s="69" t="s">
+        <v>145</v>
+      </c>
       <c r="K51" s="69"/>
       <c r="L51" s="69"/>
       <c r="M51" s="69"/>
@@ -4551,12 +4693,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="209" t="s">
+      <c r="A52" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="210"/>
-      <c r="C52" s="210"/>
-      <c r="D52" s="211"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -4564,7 +4706,9 @@
       <c r="I52" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="J52" s="71"/>
+      <c r="J52" s="71" t="s">
+        <v>146</v>
+      </c>
       <c r="K52" s="71"/>
       <c r="L52" s="71"/>
       <c r="M52" s="71"/>
@@ -4575,12 +4719,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="194" t="s">
+      <c r="A53" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="195"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="196"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
@@ -4588,7 +4732,9 @@
       <c r="I53" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="J53" s="73"/>
+      <c r="J53" s="73" t="s">
+        <v>147</v>
+      </c>
       <c r="K53" s="73"/>
       <c r="L53" s="73"/>
       <c r="M53" s="73"/>
@@ -4601,6 +4747,51 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="N46:N47"/>
@@ -4612,51 +4803,6 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4678,94 +4824,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="154" t="s">
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="158" t="s">
+      <c r="A4" s="204"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="160"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="212"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -4798,13 +4944,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="196">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -4828,9 +4974,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -4852,9 +4998,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -4876,9 +5022,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -4900,13 +5046,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="192">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -4930,9 +5076,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="192"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -4954,9 +5100,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="192"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -4978,9 +5124,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="161"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -5002,13 +5148,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="164">
+      <c r="C14" s="194">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -5032,9 +5178,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -5056,9 +5202,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -5080,9 +5226,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -5104,13 +5250,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="166">
+      <c r="C18" s="188">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -5134,9 +5280,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="188"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -5158,9 +5304,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -5182,9 +5328,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -5206,13 +5352,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="168" t="s">
+      <c r="B22" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="168">
+      <c r="C22" s="190">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -5236,9 +5382,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="167"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -5260,9 +5406,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -5284,9 +5430,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -5308,13 +5454,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="184">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -5338,9 +5484,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -5362,9 +5508,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="169"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -5386,9 +5532,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="169"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -5410,13 +5556,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="172">
+      <c r="C30" s="186">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -5440,9 +5586,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="171"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -5464,9 +5610,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
+      <c r="A32" s="185"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -5488,9 +5634,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
+      <c r="A33" s="185"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -5512,13 +5658,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="173" t="s">
+      <c r="A34" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="175" t="s">
+      <c r="C34" s="179" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -5542,9 +5688,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="175"/>
+      <c r="A35" s="177"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -5566,9 +5712,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="175"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="179"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -5590,9 +5736,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
+      <c r="A37" s="177"/>
+      <c r="B37" s="178"/>
+      <c r="C37" s="178"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -5614,13 +5760,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="176" t="s">
+      <c r="A38" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="178" t="s">
+      <c r="C38" s="182" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -5644,9 +5790,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="176"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="178"/>
+      <c r="A39" s="180"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="182"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -5668,9 +5814,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="176"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="178"/>
+      <c r="A40" s="180"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="182"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -5692,9 +5838,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="176"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
+      <c r="A41" s="180"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -5716,13 +5862,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="182">
+      <c r="C42" s="171">
         <v>2048</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -5746,9 +5892,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="179"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="182"/>
+      <c r="A43" s="168"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -5770,9 +5916,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="182"/>
+      <c r="A44" s="168"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -5794,9 +5940,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="180"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
+      <c r="A45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -5818,56 +5964,56 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="183" t="s">
+      <c r="A46" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="188"/>
-      <c r="G46" s="188"/>
-      <c r="H46" s="188"/>
-      <c r="I46" s="192" t="s">
+      <c r="B46" s="173"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="188"/>
-      <c r="K46" s="188"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="188"/>
-      <c r="N46" s="188"/>
-      <c r="O46" s="188"/>
-      <c r="P46" s="188"/>
-      <c r="Q46" s="188"/>
-      <c r="R46" s="190"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
+      <c r="Q46" s="147"/>
+      <c r="R46" s="164"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="183"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="187"/>
-      <c r="F47" s="189"/>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="189"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="189"/>
-      <c r="M47" s="189"/>
-      <c r="N47" s="189"/>
-      <c r="O47" s="189"/>
-      <c r="P47" s="189"/>
-      <c r="Q47" s="189"/>
-      <c r="R47" s="191"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="148"/>
+      <c r="K47" s="148"/>
+      <c r="L47" s="148"/>
+      <c r="M47" s="148"/>
+      <c r="N47" s="148"/>
+      <c r="O47" s="148"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="148"/>
+      <c r="R47" s="165"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="197" t="s">
+      <c r="A48" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="198"/>
-      <c r="C48" s="198"/>
-      <c r="D48" s="199"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -5886,12 +6032,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="200" t="s">
+      <c r="A49" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="201"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="202"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="154"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -5910,12 +6056,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="203" t="s">
+      <c r="A50" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="204"/>
-      <c r="C50" s="204"/>
-      <c r="D50" s="205"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="157"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -5934,12 +6080,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="206" t="s">
+      <c r="A51" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="207"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="160"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -5958,12 +6104,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="209" t="s">
+      <c r="A52" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="210"/>
-      <c r="C52" s="210"/>
-      <c r="D52" s="211"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -5982,12 +6128,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="194" t="s">
+      <c r="A53" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="195"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="196"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
@@ -6008,6 +6154,49 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="N46:N47"/>
@@ -6021,49 +6210,6 @@
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A46:D47"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6084,94 +6230,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="154" t="s">
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="158" t="s">
+      <c r="A4" s="204"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="160"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="212"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -6204,13 +6350,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="196">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -6232,9 +6378,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -6254,9 +6400,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -6276,9 +6422,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -6298,13 +6444,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="192">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -6326,9 +6472,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="192"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -6348,9 +6494,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="192"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -6370,9 +6516,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="161"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -6392,13 +6538,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="164">
+      <c r="C14" s="194">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -6420,9 +6566,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -6442,9 +6588,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -6464,9 +6610,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -6486,13 +6632,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="166">
+      <c r="C18" s="188">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -6514,9 +6660,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="188"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -6536,9 +6682,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -6558,9 +6704,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -6580,13 +6726,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="168" t="s">
+      <c r="B22" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="168">
+      <c r="C22" s="190">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -6608,9 +6754,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="167"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -6630,9 +6776,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -6652,9 +6798,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -6674,13 +6820,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="184">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -6702,9 +6848,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -6724,9 +6870,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="169"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -6746,9 +6892,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="169"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -6768,13 +6914,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="172">
+      <c r="C30" s="186">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -6796,9 +6942,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="171"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -6818,9 +6964,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
+      <c r="A32" s="185"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -6840,9 +6986,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
+      <c r="A33" s="185"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -6862,13 +7008,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="173" t="s">
+      <c r="A34" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="175" t="s">
+      <c r="C34" s="179" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -6890,9 +7036,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="175"/>
+      <c r="A35" s="177"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -6912,9 +7058,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="175"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="179"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -6934,9 +7080,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
+      <c r="A37" s="177"/>
+      <c r="B37" s="178"/>
+      <c r="C37" s="178"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -6956,13 +7102,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="176" t="s">
+      <c r="A38" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="178" t="s">
+      <c r="C38" s="182" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -6984,9 +7130,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="176"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="178"/>
+      <c r="A39" s="180"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="182"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -7006,9 +7152,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="176"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="178"/>
+      <c r="A40" s="180"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="182"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -7028,9 +7174,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="176"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
+      <c r="A41" s="180"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -7050,13 +7196,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="182" t="s">
+      <c r="C42" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -7078,9 +7224,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="179"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="182"/>
+      <c r="A43" s="168"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -7100,9 +7246,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="182"/>
+      <c r="A44" s="168"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -7122,9 +7268,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="180"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
+      <c r="A45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -7144,56 +7290,56 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="183" t="s">
+      <c r="A46" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="188"/>
-      <c r="G46" s="188"/>
-      <c r="H46" s="188"/>
-      <c r="I46" s="192" t="s">
+      <c r="B46" s="173"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="188"/>
-      <c r="K46" s="188"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="188"/>
-      <c r="N46" s="188"/>
-      <c r="O46" s="188"/>
-      <c r="P46" s="188"/>
-      <c r="Q46" s="188"/>
-      <c r="R46" s="190"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
+      <c r="Q46" s="147"/>
+      <c r="R46" s="164"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="183"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="187"/>
-      <c r="F47" s="189"/>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="189"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="189"/>
-      <c r="M47" s="189"/>
-      <c r="N47" s="189"/>
-      <c r="O47" s="189"/>
-      <c r="P47" s="189"/>
-      <c r="Q47" s="189"/>
-      <c r="R47" s="191"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="148"/>
+      <c r="K47" s="148"/>
+      <c r="L47" s="148"/>
+      <c r="M47" s="148"/>
+      <c r="N47" s="148"/>
+      <c r="O47" s="148"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="148"/>
+      <c r="R47" s="165"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="197" t="s">
+      <c r="A48" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="198"/>
-      <c r="C48" s="198"/>
-      <c r="D48" s="199"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -7210,12 +7356,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="200" t="s">
+      <c r="A49" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="201"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="202"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="154"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -7232,12 +7378,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="203" t="s">
+      <c r="A50" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="204"/>
-      <c r="C50" s="204"/>
-      <c r="D50" s="205"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="157"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -7254,12 +7400,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="206" t="s">
+      <c r="A51" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="207"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="160"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -7276,12 +7422,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="209" t="s">
+      <c r="A52" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="210"/>
-      <c r="C52" s="210"/>
-      <c r="D52" s="211"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -7298,12 +7444,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="194" t="s">
+      <c r="A53" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="195"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="196"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
@@ -7322,11 +7468,41 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
     <mergeCell ref="A2:D4"/>
     <mergeCell ref="E4:R4"/>
     <mergeCell ref="A1:I1"/>
@@ -7343,41 +7519,11 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/extras/Library speed comparisons.xlsx
+++ b/extras/Library speed comparisons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajwal Bhattaram\Dropbox\Genesis share\Arduino\sketches\libraries\SPIFlash\extras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajwal Bhattaram\Documents\GitHub\SPIFlash\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ESP8266" sheetId="3" r:id="rId3"/>
     <sheet name="Template" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="187">
   <si>
     <t>Function</t>
   </si>
@@ -477,12 +477,132 @@
   </si>
   <si>
     <t>1.2855 s</t>
+  </si>
+  <si>
+    <t>v2.4.0</t>
+  </si>
+  <si>
+    <t>152 µs</t>
+  </si>
+  <si>
+    <t>408 µs</t>
+  </si>
+  <si>
+    <t>304 µs</t>
+  </si>
+  <si>
+    <t>528 µs</t>
+  </si>
+  <si>
+    <t>344 µs</t>
+  </si>
+  <si>
+    <t>488 µs</t>
+  </si>
+  <si>
+    <t>176 µs</t>
+  </si>
+  <si>
+    <t>520 µs</t>
+  </si>
+  <si>
+    <t>1224 µs</t>
+  </si>
+  <si>
+    <t>592 µs</t>
+  </si>
+  <si>
+    <t>744 µs</t>
+  </si>
+  <si>
+    <t>288 µs</t>
+  </si>
+  <si>
+    <t>5616 µs</t>
+  </si>
+  <si>
+    <t>2832 µs</t>
+  </si>
+  <si>
+    <t>4896 µs</t>
+  </si>
+  <si>
+    <t>2656 µs</t>
+  </si>
+  <si>
+    <t>41.0880 ms</t>
+  </si>
+  <si>
+    <t>1.2866 s</t>
+  </si>
+  <si>
+    <t>v2.3.0</t>
+  </si>
+  <si>
+    <t>v2.3.1</t>
+  </si>
+  <si>
+    <t>448 µs</t>
+  </si>
+  <si>
+    <t>96 µs</t>
+  </si>
+  <si>
+    <t>536 µs</t>
+  </si>
+  <si>
+    <t>808 µs</t>
+  </si>
+  <si>
+    <t>728 µs</t>
+  </si>
+  <si>
+    <t>784 µs</t>
+  </si>
+  <si>
+    <t>1384 µs</t>
+  </si>
+  <si>
+    <t>1408 µs</t>
+  </si>
+  <si>
+    <t>1440 µs</t>
+  </si>
+  <si>
+    <t>704 µs</t>
+  </si>
+  <si>
+    <t>160 µs</t>
+  </si>
+  <si>
+    <t>1264 µs</t>
+  </si>
+  <si>
+    <t>1272 µs</t>
+  </si>
+  <si>
+    <t>3240 µs</t>
+  </si>
+  <si>
+    <t>3256 µs</t>
+  </si>
+  <si>
+    <t>456 µs</t>
+  </si>
+  <si>
+    <t>240 µs</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="ss.000.000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -542,6 +662,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -1242,7 +1363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1402,160 +1523,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,6 +1577,161 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1913,94 +2035,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="206" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="157"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="204"/>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="210" t="s">
+      <c r="A4" s="152"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="212"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="160"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -2035,13 +2157,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="196">
+      <c r="C6" s="144">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -2065,9 +2187,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -2089,9 +2211,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -2113,9 +2235,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -2137,13 +2259,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="162">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -2167,9 +2289,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="191"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -2191,9 +2313,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="191"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -2215,9 +2337,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -2239,13 +2361,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="194">
+      <c r="C14" s="164">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -2269,9 +2391,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -2293,9 +2415,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -2317,9 +2439,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="194"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -2341,13 +2463,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="188">
+      <c r="C18" s="166">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -2371,9 +2493,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="187"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="188"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -2395,9 +2517,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="188"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -2419,9 +2541,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="187"/>
-      <c r="B21" s="188"/>
-      <c r="C21" s="188"/>
+      <c r="A21" s="165"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -2443,13 +2565,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="189" t="s">
+      <c r="A22" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="190">
+      <c r="C22" s="168">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -2473,9 +2595,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="189"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -2497,9 +2619,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="189"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="190"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -2521,9 +2643,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="189"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
+      <c r="A25" s="167"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -2545,13 +2667,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="184">
+      <c r="C26" s="170">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -2575,9 +2697,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="183"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -2599,9 +2721,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="183"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -2623,9 +2745,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="183"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
+      <c r="A29" s="169"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -2647,13 +2769,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="186" t="s">
+      <c r="B30" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="186">
+      <c r="C30" s="172">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -2677,9 +2799,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -2701,9 +2823,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -2725,9 +2847,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -2749,13 +2871,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="179" t="s">
+      <c r="C34" s="175" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -2779,9 +2901,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="177"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="179"/>
+      <c r="A35" s="173"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="175"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -2803,9 +2925,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="177"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="179"/>
+      <c r="A36" s="173"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="175"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -2827,9 +2949,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="177"/>
-      <c r="B37" s="178"/>
-      <c r="C37" s="178"/>
+      <c r="A37" s="173"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -2851,13 +2973,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="178" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -2881,9 +3003,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="180"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="182"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="178"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -2905,9 +3027,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="180"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="182"/>
+      <c r="A40" s="176"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="178"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -2929,9 +3051,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="180"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
+      <c r="A41" s="176"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -2953,13 +3075,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="170" t="s">
+      <c r="B42" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="171" t="s">
+      <c r="C42" s="182" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -2983,9 +3105,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="168"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="171"/>
+      <c r="A43" s="179"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="182"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -3007,9 +3129,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="168"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="171"/>
+      <c r="A44" s="179"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="182"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -3031,9 +3153,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="169"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
+      <c r="A45" s="180"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -3055,56 +3177,56 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="172" t="s">
+      <c r="A46" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="173"/>
-      <c r="C46" s="173"/>
-      <c r="D46" s="174"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="166" t="s">
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="188"/>
+      <c r="H46" s="188"/>
+      <c r="I46" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="147"/>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="164"/>
+      <c r="J46" s="188"/>
+      <c r="K46" s="188"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="188"/>
+      <c r="N46" s="188"/>
+      <c r="O46" s="188"/>
+      <c r="P46" s="188"/>
+      <c r="Q46" s="188"/>
+      <c r="R46" s="190"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
-      <c r="B47" s="173"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="174"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="148"/>
-      <c r="L47" s="148"/>
-      <c r="M47" s="148"/>
-      <c r="N47" s="148"/>
-      <c r="O47" s="148"/>
-      <c r="P47" s="148"/>
-      <c r="Q47" s="148"/>
-      <c r="R47" s="165"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="189"/>
+      <c r="G47" s="189"/>
+      <c r="H47" s="189"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="189"/>
+      <c r="K47" s="189"/>
+      <c r="L47" s="189"/>
+      <c r="M47" s="189"/>
+      <c r="N47" s="189"/>
+      <c r="O47" s="189"/>
+      <c r="P47" s="189"/>
+      <c r="Q47" s="189"/>
+      <c r="R47" s="191"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="149" t="s">
+      <c r="A48" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="150"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="151"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="198"/>
+      <c r="D48" s="199"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -3123,12 +3245,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="152" t="s">
+      <c r="A49" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="154"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="202"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -3147,12 +3269,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="155" t="s">
+      <c r="A50" s="203" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="157"/>
+      <c r="B50" s="204"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="205"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -3171,12 +3293,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="158" t="s">
+      <c r="A51" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="159"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="160"/>
+      <c r="B51" s="207"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -3195,12 +3317,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="161" t="s">
+      <c r="A52" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="162"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="163"/>
+      <c r="B52" s="210"/>
+      <c r="C52" s="210"/>
+      <c r="D52" s="211"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -3219,12 +3341,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="144" t="s">
+      <c r="A53" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="146"/>
+      <c r="B53" s="195"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="196"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
@@ -3245,51 +3367,6 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E4:R4"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="N46:N47"/>
@@ -3301,6 +3378,51 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3310,105 +3432,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10.875" style="1"/>
     <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="206" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="157"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="204"/>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="210" t="s">
+      <c r="A4" s="152"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="212"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="160"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -3425,8 +3548,12 @@
       </c>
       <c r="E5" s="140"/>
       <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
+      <c r="G5" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="141" t="s">
+        <v>148</v>
+      </c>
       <c r="I5" s="141" t="s">
         <v>1</v>
       </c>
@@ -3443,13 +3570,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="196">
+      <c r="C6" s="144">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -3457,9 +3584,13 @@
       </c>
       <c r="E6" s="75"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="143" t="s">
+      <c r="G6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="213" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="212" t="s">
         <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -3475,16 +3606,20 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="76"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3501,16 +3636,20 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="76"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>73</v>
       </c>
@@ -3527,16 +3666,20 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
@@ -3553,13 +3696,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="162">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -3567,8 +3710,12 @@
       </c>
       <c r="E10" s="78"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="I10" s="8" t="s">
         <v>74</v>
       </c>
@@ -3585,16 +3732,20 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="191"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="I11" s="10" t="s">
         <v>75</v>
       </c>
@@ -3611,16 +3762,20 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="191"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="79"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="I12" s="10" t="s">
         <v>73</v>
       </c>
@@ -3637,16 +3792,20 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="80"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="I13" s="12" t="s">
         <v>40</v>
       </c>
@@ -3663,13 +3822,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="194">
+      <c r="C14" s="164">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -3677,8 +3836,12 @@
       </c>
       <c r="E14" s="81"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="I14" s="14" t="s">
         <v>76</v>
       </c>
@@ -3695,16 +3858,20 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="82"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I15" s="16" t="s">
         <v>40</v>
       </c>
@@ -3721,16 +3888,20 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="I16" s="16" t="s">
         <v>77</v>
       </c>
@@ -3747,16 +3918,20 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="194"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="83"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="I17" s="18" t="s">
         <v>36</v>
       </c>
@@ -3773,13 +3948,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="188">
+      <c r="C18" s="166">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -3787,8 +3962,12 @@
       </c>
       <c r="E18" s="84"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="I18" s="20" t="s">
         <v>76</v>
       </c>
@@ -3805,16 +3984,20 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="187"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="188"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="85"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="G19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="I19" s="22" t="s">
         <v>40</v>
       </c>
@@ -3831,16 +4014,20 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="188"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="85"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="I20" s="22" t="s">
         <v>78</v>
       </c>
@@ -3857,16 +4044,20 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="187"/>
-      <c r="B21" s="188"/>
-      <c r="C21" s="188"/>
+      <c r="A21" s="165"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="86"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="G21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="I21" s="24" t="s">
         <v>79</v>
       </c>
@@ -3883,13 +4074,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="189" t="s">
+      <c r="A22" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="190">
+      <c r="C22" s="168">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -3897,8 +4088,12 @@
       </c>
       <c r="E22" s="87"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="I22" s="26" t="s">
         <v>80</v>
       </c>
@@ -3915,16 +4110,20 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="189"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="88"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="G23" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="I23" s="28" t="s">
         <v>39</v>
       </c>
@@ -3941,16 +4140,20 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="189"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="190"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="88"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="G24" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>153</v>
+      </c>
       <c r="I24" s="28" t="s">
         <v>81</v>
       </c>
@@ -3967,16 +4170,20 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="189"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
+      <c r="A25" s="167"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="89"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="G25" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="I25" s="30" t="s">
         <v>39</v>
       </c>
@@ -3993,13 +4200,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="184">
+      <c r="C26" s="170">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -4007,8 +4214,12 @@
       </c>
       <c r="E26" s="90"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="G26" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>154</v>
+      </c>
       <c r="I26" s="32" t="s">
         <v>82</v>
       </c>
@@ -4025,16 +4236,20 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="183"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="91"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="G27" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>155</v>
+      </c>
       <c r="I27" s="34" t="s">
         <v>41</v>
       </c>
@@ -4051,16 +4266,20 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="183"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="91"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="G28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>153</v>
+      </c>
       <c r="I28" s="34" t="s">
         <v>81</v>
       </c>
@@ -4077,16 +4296,20 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="183"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
+      <c r="A29" s="169"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="92"/>
       <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="G29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>94</v>
+      </c>
       <c r="I29" s="36" t="s">
         <v>39</v>
       </c>
@@ -4103,13 +4326,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="186" t="s">
+      <c r="B30" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="186">
+      <c r="C30" s="172">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -4117,8 +4340,12 @@
       </c>
       <c r="E30" s="93"/>
       <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>156</v>
+      </c>
       <c r="I30" s="38" t="s">
         <v>80</v>
       </c>
@@ -4135,16 +4362,20 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="94"/>
       <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="G31" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>155</v>
+      </c>
       <c r="I31" s="40" t="s">
         <v>40</v>
       </c>
@@ -4161,16 +4392,20 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="94"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="I32" s="40" t="s">
         <v>83</v>
       </c>
@@ -4187,16 +4422,20 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="95"/>
       <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="G33" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>94</v>
+      </c>
       <c r="I33" s="54" t="s">
         <v>40</v>
       </c>
@@ -4213,13 +4452,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="179" t="s">
+      <c r="C34" s="175" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -4227,8 +4466,12 @@
       </c>
       <c r="E34" s="96"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+      <c r="G34" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>157</v>
+      </c>
       <c r="I34" s="42" t="s">
         <v>84</v>
       </c>
@@ -4245,16 +4488,20 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="177"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="179"/>
+      <c r="A35" s="173"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="175"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="97"/>
       <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
+      <c r="G35" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>138</v>
+      </c>
       <c r="I35" s="44" t="s">
         <v>85</v>
       </c>
@@ -4271,16 +4518,20 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="177"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="179"/>
+      <c r="A36" s="173"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="175"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="97"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="G36" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>158</v>
+      </c>
       <c r="I36" s="44" t="s">
         <v>86</v>
       </c>
@@ -4297,16 +4548,20 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="177"/>
-      <c r="B37" s="178"/>
-      <c r="C37" s="178"/>
+      <c r="A37" s="173"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="98"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
+      <c r="G37" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="56" t="s">
+        <v>89</v>
+      </c>
       <c r="I37" s="56" t="s">
         <v>85</v>
       </c>
@@ -4323,13 +4578,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="178" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -4337,8 +4592,12 @@
       </c>
       <c r="E38" s="99"/>
       <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
+      <c r="G38" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>159</v>
+      </c>
       <c r="I38" s="46" t="s">
         <v>87</v>
       </c>
@@ -4355,16 +4614,20 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="180"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="182"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="178"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="100"/>
       <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
+      <c r="G39" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>160</v>
+      </c>
       <c r="I39" s="48" t="s">
         <v>88</v>
       </c>
@@ -4381,16 +4644,20 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="180"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="182"/>
+      <c r="A40" s="176"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="178"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="100"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
+      <c r="G40" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>152</v>
+      </c>
       <c r="I40" s="48" t="s">
         <v>89</v>
       </c>
@@ -4407,16 +4674,20 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="180"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
+      <c r="A41" s="176"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="101"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
+      <c r="G41" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="58" t="s">
+        <v>83</v>
+      </c>
       <c r="I41" s="58" t="s">
         <v>88</v>
       </c>
@@ -4433,13 +4704,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="170" t="s">
+      <c r="B42" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="171" t="s">
+      <c r="C42" s="182" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -4447,8 +4718,12 @@
       </c>
       <c r="E42" s="102"/>
       <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+      <c r="G42" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>161</v>
+      </c>
       <c r="I42" s="50" t="s">
         <v>90</v>
       </c>
@@ -4465,16 +4740,20 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="168"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="171"/>
+      <c r="A43" s="179"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="182"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="103"/>
       <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
+      <c r="G43" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="I43" s="52" t="s">
         <v>91</v>
       </c>
@@ -4491,16 +4770,20 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="168"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="171"/>
+      <c r="A44" s="179"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="182"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="103"/>
       <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
+      <c r="G44" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>163</v>
+      </c>
       <c r="I44" s="52" t="s">
         <v>92</v>
       </c>
@@ -4517,16 +4800,20 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="169"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
+      <c r="A45" s="180"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="103"/>
       <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
+      <c r="G45" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" s="52" t="s">
+        <v>164</v>
+      </c>
       <c r="I45" s="52" t="s">
         <v>93</v>
       </c>
@@ -4543,62 +4830,70 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="172" t="s">
+      <c r="A46" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="173"/>
-      <c r="C46" s="173"/>
-      <c r="D46" s="174"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="166" t="s">
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192" t="s">
+        <v>167</v>
+      </c>
+      <c r="H46" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="I46" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="166" t="s">
+      <c r="J46" s="192" t="s">
         <v>132</v>
       </c>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="147"/>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="164"/>
+      <c r="K46" s="188"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="188"/>
+      <c r="N46" s="188"/>
+      <c r="O46" s="188"/>
+      <c r="P46" s="188"/>
+      <c r="Q46" s="188"/>
+      <c r="R46" s="190"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
-      <c r="B47" s="173"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="174"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="148"/>
-      <c r="L47" s="148"/>
-      <c r="M47" s="148"/>
-      <c r="N47" s="148"/>
-      <c r="O47" s="148"/>
-      <c r="P47" s="148"/>
-      <c r="Q47" s="148"/>
-      <c r="R47" s="165"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="193"/>
+      <c r="F47" s="193"/>
+      <c r="G47" s="193"/>
+      <c r="H47" s="193"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="193"/>
+      <c r="K47" s="189"/>
+      <c r="L47" s="189"/>
+      <c r="M47" s="189"/>
+      <c r="N47" s="189"/>
+      <c r="O47" s="189"/>
+      <c r="P47" s="189"/>
+      <c r="Q47" s="189"/>
+      <c r="R47" s="191"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="149" t="s">
+      <c r="A48" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="150"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="151"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="198"/>
+      <c r="D48" s="199"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
+      <c r="G48" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="H48" s="65" t="s">
+        <v>74</v>
+      </c>
       <c r="I48" s="65" t="s">
         <v>94</v>
       </c>
@@ -4615,16 +4910,20 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="152" t="s">
+      <c r="A49" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="154"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="202"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
+      <c r="G49" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="H49" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="I49" s="63" t="s">
         <v>35</v>
       </c>
@@ -4641,16 +4940,20 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="155" t="s">
+      <c r="A50" s="203" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="157"/>
+      <c r="B50" s="204"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="205"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
+      <c r="G50" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="H50" s="67" t="s">
+        <v>186</v>
+      </c>
       <c r="I50" s="67" t="s">
         <v>95</v>
       </c>
@@ -4667,16 +4970,20 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="158" t="s">
+      <c r="A51" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="159"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="160"/>
+      <c r="B51" s="207"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
+      <c r="G51" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="H51" s="69" t="s">
+        <v>186</v>
+      </c>
       <c r="I51" s="69" t="s">
         <v>96</v>
       </c>
@@ -4693,16 +5000,20 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="161" t="s">
+      <c r="A52" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="162"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="163"/>
+      <c r="B52" s="210"/>
+      <c r="C52" s="210"/>
+      <c r="D52" s="211"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
+      <c r="G52" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="H52" s="71" t="s">
+        <v>165</v>
+      </c>
       <c r="I52" s="71" t="s">
         <v>97</v>
       </c>
@@ -4719,16 +5030,20 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="144" t="s">
+      <c r="A53" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="146"/>
+      <c r="B53" s="195"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="196"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
+      <c r="G53" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="H53" s="73" t="s">
+        <v>166</v>
+      </c>
       <c r="I53" s="73" t="s">
         <v>98</v>
       </c>
@@ -4747,51 +5062,6 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E4:R4"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="N46:N47"/>
@@ -4803,6 +5073,51 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4824,94 +5139,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="206" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="157"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="204"/>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="210" t="s">
+      <c r="A4" s="152"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="212"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="160"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -4944,13 +5259,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="196">
+      <c r="C6" s="144">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -4974,9 +5289,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -4998,9 +5313,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -5022,9 +5337,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -5046,13 +5361,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="162">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -5076,9 +5391,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="191"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -5100,9 +5415,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="191"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -5124,9 +5439,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -5148,13 +5463,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="194">
+      <c r="C14" s="164">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -5178,9 +5493,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -5202,9 +5517,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -5226,9 +5541,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="194"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -5250,13 +5565,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="188">
+      <c r="C18" s="166">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -5280,9 +5595,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="187"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="188"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -5304,9 +5619,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="188"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -5328,9 +5643,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="187"/>
-      <c r="B21" s="188"/>
-      <c r="C21" s="188"/>
+      <c r="A21" s="165"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -5352,13 +5667,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="189" t="s">
+      <c r="A22" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="190">
+      <c r="C22" s="168">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -5382,9 +5697,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="189"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -5406,9 +5721,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="189"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="190"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -5430,9 +5745,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="189"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
+      <c r="A25" s="167"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -5454,13 +5769,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="184">
+      <c r="C26" s="170">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -5484,9 +5799,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="183"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -5508,9 +5823,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="183"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -5532,9 +5847,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="183"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
+      <c r="A29" s="169"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -5556,13 +5871,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="186" t="s">
+      <c r="B30" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="186">
+      <c r="C30" s="172">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -5586,9 +5901,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -5610,9 +5925,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -5634,9 +5949,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -5658,13 +5973,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="179" t="s">
+      <c r="C34" s="175" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -5688,9 +6003,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="177"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="179"/>
+      <c r="A35" s="173"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="175"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -5712,9 +6027,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="177"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="179"/>
+      <c r="A36" s="173"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="175"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -5736,9 +6051,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="177"/>
-      <c r="B37" s="178"/>
-      <c r="C37" s="178"/>
+      <c r="A37" s="173"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -5760,13 +6075,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="178" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -5790,9 +6105,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="180"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="182"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="178"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -5814,9 +6129,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="180"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="182"/>
+      <c r="A40" s="176"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="178"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -5838,9 +6153,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="180"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
+      <c r="A41" s="176"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -5862,13 +6177,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="170" t="s">
+      <c r="B42" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="171">
+      <c r="C42" s="182">
         <v>2048</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -5892,9 +6207,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="168"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="171"/>
+      <c r="A43" s="179"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="182"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -5916,9 +6231,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="168"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="171"/>
+      <c r="A44" s="179"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="182"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -5940,9 +6255,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="169"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
+      <c r="A45" s="180"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -5964,56 +6279,56 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="172" t="s">
+      <c r="A46" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="173"/>
-      <c r="C46" s="173"/>
-      <c r="D46" s="174"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="166" t="s">
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="188"/>
+      <c r="H46" s="188"/>
+      <c r="I46" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="147"/>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="164"/>
+      <c r="J46" s="188"/>
+      <c r="K46" s="188"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="188"/>
+      <c r="N46" s="188"/>
+      <c r="O46" s="188"/>
+      <c r="P46" s="188"/>
+      <c r="Q46" s="188"/>
+      <c r="R46" s="190"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
-      <c r="B47" s="173"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="174"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="148"/>
-      <c r="L47" s="148"/>
-      <c r="M47" s="148"/>
-      <c r="N47" s="148"/>
-      <c r="O47" s="148"/>
-      <c r="P47" s="148"/>
-      <c r="Q47" s="148"/>
-      <c r="R47" s="165"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="189"/>
+      <c r="G47" s="189"/>
+      <c r="H47" s="189"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="189"/>
+      <c r="K47" s="189"/>
+      <c r="L47" s="189"/>
+      <c r="M47" s="189"/>
+      <c r="N47" s="189"/>
+      <c r="O47" s="189"/>
+      <c r="P47" s="189"/>
+      <c r="Q47" s="189"/>
+      <c r="R47" s="191"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="149" t="s">
+      <c r="A48" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="150"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="151"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="198"/>
+      <c r="D48" s="199"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -6032,12 +6347,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="152" t="s">
+      <c r="A49" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="154"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="202"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -6056,12 +6371,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="155" t="s">
+      <c r="A50" s="203" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="157"/>
+      <c r="B50" s="204"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="205"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -6080,12 +6395,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="158" t="s">
+      <c r="A51" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="159"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="160"/>
+      <c r="B51" s="207"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -6104,12 +6419,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="161" t="s">
+      <c r="A52" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="162"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="163"/>
+      <c r="B52" s="210"/>
+      <c r="C52" s="210"/>
+      <c r="D52" s="211"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -6128,12 +6443,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="144" t="s">
+      <c r="A53" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="146"/>
+      <c r="B53" s="195"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="196"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
@@ -6154,49 +6469,6 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E4:R4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="N46:N47"/>
@@ -6210,6 +6482,49 @@
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A46:D47"/>
     <mergeCell ref="E46:E47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6230,94 +6545,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="206" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="157"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="204"/>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="210" t="s">
+      <c r="A4" s="152"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="212"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="160"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -6350,13 +6665,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="196">
+      <c r="C6" s="144">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -6378,9 +6693,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -6400,9 +6715,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -6422,9 +6737,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -6444,13 +6759,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="162">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -6472,9 +6787,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="191"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -6494,9 +6809,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="191"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -6516,9 +6831,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -6538,13 +6853,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="194">
+      <c r="C14" s="164">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -6566,9 +6881,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -6588,9 +6903,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -6610,9 +6925,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="194"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -6632,13 +6947,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="188">
+      <c r="C18" s="166">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -6660,9 +6975,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="187"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="188"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -6682,9 +6997,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="188"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -6704,9 +7019,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="187"/>
-      <c r="B21" s="188"/>
-      <c r="C21" s="188"/>
+      <c r="A21" s="165"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -6726,13 +7041,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="189" t="s">
+      <c r="A22" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="190">
+      <c r="C22" s="168">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -6754,9 +7069,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="189"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -6776,9 +7091,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="189"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="190"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -6798,9 +7113,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="189"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
+      <c r="A25" s="167"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -6820,13 +7135,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="184">
+      <c r="C26" s="170">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -6848,9 +7163,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="183"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -6870,9 +7185,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="183"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -6892,9 +7207,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="183"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
+      <c r="A29" s="169"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -6914,13 +7229,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="186" t="s">
+      <c r="B30" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="186">
+      <c r="C30" s="172">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -6942,9 +7257,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -6964,9 +7279,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -6986,9 +7301,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -7008,13 +7323,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="179" t="s">
+      <c r="C34" s="175" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -7036,9 +7351,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="177"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="179"/>
+      <c r="A35" s="173"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="175"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -7058,9 +7373,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="177"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="179"/>
+      <c r="A36" s="173"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="175"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -7080,9 +7395,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="177"/>
-      <c r="B37" s="178"/>
-      <c r="C37" s="178"/>
+      <c r="A37" s="173"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -7102,13 +7417,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="178" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -7130,9 +7445,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="180"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="182"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="178"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -7152,9 +7467,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="180"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="182"/>
+      <c r="A40" s="176"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="178"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -7174,9 +7489,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="180"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
+      <c r="A41" s="176"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -7196,13 +7511,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="170" t="s">
+      <c r="B42" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="171" t="s">
+      <c r="C42" s="182" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -7224,9 +7539,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="168"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="171"/>
+      <c r="A43" s="179"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="182"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -7246,9 +7561,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="168"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="171"/>
+      <c r="A44" s="179"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="182"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -7268,9 +7583,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="169"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
+      <c r="A45" s="180"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -7290,56 +7605,56 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="172" t="s">
+      <c r="A46" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="173"/>
-      <c r="C46" s="173"/>
-      <c r="D46" s="174"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="166" t="s">
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="188"/>
+      <c r="H46" s="188"/>
+      <c r="I46" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="147"/>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="164"/>
+      <c r="J46" s="188"/>
+      <c r="K46" s="188"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="188"/>
+      <c r="N46" s="188"/>
+      <c r="O46" s="188"/>
+      <c r="P46" s="188"/>
+      <c r="Q46" s="188"/>
+      <c r="R46" s="190"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
-      <c r="B47" s="173"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="174"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="148"/>
-      <c r="L47" s="148"/>
-      <c r="M47" s="148"/>
-      <c r="N47" s="148"/>
-      <c r="O47" s="148"/>
-      <c r="P47" s="148"/>
-      <c r="Q47" s="148"/>
-      <c r="R47" s="165"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="189"/>
+      <c r="G47" s="189"/>
+      <c r="H47" s="189"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="189"/>
+      <c r="K47" s="189"/>
+      <c r="L47" s="189"/>
+      <c r="M47" s="189"/>
+      <c r="N47" s="189"/>
+      <c r="O47" s="189"/>
+      <c r="P47" s="189"/>
+      <c r="Q47" s="189"/>
+      <c r="R47" s="191"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="149" t="s">
+      <c r="A48" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="150"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="151"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="198"/>
+      <c r="D48" s="199"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -7356,12 +7671,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="152" t="s">
+      <c r="A49" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="154"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="202"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -7378,12 +7693,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="155" t="s">
+      <c r="A50" s="203" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="157"/>
+      <c r="B50" s="204"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="205"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -7400,12 +7715,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="158" t="s">
+      <c r="A51" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="159"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="160"/>
+      <c r="B51" s="207"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -7422,12 +7737,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="161" t="s">
+      <c r="A52" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="162"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="163"/>
+      <c r="B52" s="210"/>
+      <c r="C52" s="210"/>
+      <c r="D52" s="211"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -7444,12 +7759,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="144" t="s">
+      <c r="A53" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="146"/>
+      <c r="B53" s="195"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="196"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
@@ -7468,25 +7783,27 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A53:D53"/>
@@ -7503,27 +7820,25 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E4:R4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/extras/Library speed comparisons.xlsx
+++ b/extras/Library speed comparisons.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="465" windowWidth="28800" windowHeight="17595" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="8940" yWindow="465" windowWidth="28800" windowHeight="17595" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino Due" sheetId="4" r:id="rId1"/>
     <sheet name="Arduino Pro" sheetId="5" r:id="rId2"/>
     <sheet name="ESP8266" sheetId="3" r:id="rId3"/>
-    <sheet name="Simblee" sheetId="6" r:id="rId4"/>
-    <sheet name="ESP32 Thing" sheetId="7" r:id="rId5"/>
+    <sheet name="ESP32 Thing" sheetId="7" r:id="rId4"/>
+    <sheet name="Simblee" sheetId="6" r:id="rId5"/>
     <sheet name="Template" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="255">
   <si>
     <t>Function</t>
   </si>
@@ -737,6 +737,69 @@
   </si>
   <si>
     <t>1.1326 s</t>
+  </si>
+  <si>
+    <t>43 µs</t>
+  </si>
+  <si>
+    <t>46 µs</t>
+  </si>
+  <si>
+    <t>75 µs</t>
+  </si>
+  <si>
+    <t>42 µs</t>
+  </si>
+  <si>
+    <t>106 µs</t>
+  </si>
+  <si>
+    <t>89 µs</t>
+  </si>
+  <si>
+    <t>103 µs</t>
+  </si>
+  <si>
+    <t>31 µs</t>
+  </si>
+  <si>
+    <t>102 µs</t>
+  </si>
+  <si>
+    <t>231 µs</t>
+  </si>
+  <si>
+    <t>61 µs</t>
+  </si>
+  <si>
+    <t>105 µs</t>
+  </si>
+  <si>
+    <t>193 µs</t>
+  </si>
+  <si>
+    <t>1896 µs</t>
+  </si>
+  <si>
+    <t>401 µs</t>
+  </si>
+  <si>
+    <t>1026 µs</t>
+  </si>
+  <si>
+    <t>838 µs</t>
+  </si>
+  <si>
+    <t>9756 µs</t>
+  </si>
+  <si>
+    <t>32.3690 ms</t>
+  </si>
+  <si>
+    <t>36.9210 ms</t>
+  </si>
+  <si>
+    <t>1.1341 s</t>
   </si>
 </sst>
 </file>
@@ -1668,6 +1731,159 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1720,159 +1936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2178,94 +2241,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="149"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="156" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="160" t="s">
+      <c r="A4" s="205"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="162"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="213"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -2300,13 +2363,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="146">
+      <c r="C6" s="197">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -2330,9 +2393,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -2354,9 +2417,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -2378,9 +2441,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -2402,13 +2465,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="164">
+      <c r="C10" s="193">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -2432,9 +2495,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -2456,9 +2519,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -2480,9 +2543,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -2504,13 +2567,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="166">
+      <c r="C14" s="195">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -2534,9 +2597,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -2558,9 +2621,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -2582,9 +2645,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -2606,13 +2669,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="168">
+      <c r="C18" s="189">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -2636,9 +2699,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -2660,9 +2723,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="189"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -2684,9 +2747,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -2708,13 +2771,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="191">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -2738,9 +2801,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -2762,9 +2825,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -2786,9 +2849,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -2810,13 +2873,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="185">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -2840,9 +2903,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -2864,9 +2927,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -2888,9 +2951,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -2912,13 +2975,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="174">
+      <c r="C30" s="187">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -2942,9 +3005,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -2966,9 +3029,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -2990,9 +3053,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="187"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -3014,13 +3077,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="180" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -3044,9 +3107,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="175"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="177"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="180"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -3068,9 +3131,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="175"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="177"/>
+      <c r="A36" s="178"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="180"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -3092,9 +3155,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -3116,13 +3179,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="178" t="s">
+      <c r="A38" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="180" t="s">
+      <c r="C38" s="183" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -3146,9 +3209,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="178"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="180"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -3170,9 +3233,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="178"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="180"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -3194,9 +3257,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="178"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -3218,13 +3281,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="183" t="s">
+      <c r="B42" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="184" t="s">
+      <c r="C42" s="172" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -3248,9 +3311,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
-      <c r="B43" s="183"/>
-      <c r="C43" s="184"/>
+      <c r="A43" s="169"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -3272,9 +3335,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="184"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -3296,9 +3359,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -3320,56 +3383,56 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="185" t="s">
+      <c r="A46" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="186"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="188"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="194" t="s">
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="190"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="190"/>
-      <c r="O46" s="190"/>
-      <c r="P46" s="190"/>
-      <c r="Q46" s="190"/>
-      <c r="R46" s="192"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="148"/>
+      <c r="R46" s="165"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="187"/>
-      <c r="E47" s="189"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="191"/>
-      <c r="N47" s="191"/>
-      <c r="O47" s="191"/>
-      <c r="P47" s="191"/>
-      <c r="Q47" s="191"/>
-      <c r="R47" s="193"/>
+      <c r="A47" s="173"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="149"/>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="166"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="199" t="s">
+      <c r="A48" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -3388,12 +3451,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="202" t="s">
+      <c r="A49" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="203"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="204"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="155"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -3412,12 +3475,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="205" t="s">
+      <c r="A50" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="206"/>
-      <c r="C50" s="206"/>
-      <c r="D50" s="207"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="158"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -3436,12 +3499,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="208" t="s">
+      <c r="A51" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="209"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="210"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -3460,12 +3523,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="211" t="s">
+      <c r="A52" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="212"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="213"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -3484,12 +3547,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="196" t="s">
+      <c r="A53" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="198"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="147"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
@@ -3510,6 +3573,51 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="N46:N47"/>
@@ -3521,51 +3629,6 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3587,94 +3650,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="149"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="156" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="160" t="s">
+      <c r="A4" s="205"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="162"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="213"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -3713,13 +3776,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="146">
+      <c r="C6" s="197">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -3749,9 +3812,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -3779,9 +3842,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -3809,9 +3872,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -3839,13 +3902,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="164">
+      <c r="C10" s="193">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -3875,9 +3938,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -3905,9 +3968,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -3935,9 +3998,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -3965,13 +4028,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="166">
+      <c r="C14" s="195">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -4001,9 +4064,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -4031,9 +4094,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -4061,9 +4124,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -4091,13 +4154,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="168">
+      <c r="C18" s="189">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -4127,9 +4190,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -4157,9 +4220,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="189"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -4187,9 +4250,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -4217,13 +4280,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="191">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -4253,9 +4316,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -4283,9 +4346,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -4313,9 +4376,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -4343,13 +4406,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="185">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -4379,9 +4442,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -4409,9 +4472,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -4439,9 +4502,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -4469,13 +4532,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="174">
+      <c r="C30" s="187">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -4505,9 +4568,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -4535,9 +4598,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -4565,9 +4628,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="187"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -4595,13 +4658,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="180" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -4631,9 +4694,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="175"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="177"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="180"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -4661,9 +4724,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="175"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="177"/>
+      <c r="A36" s="178"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="180"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -4691,9 +4754,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -4721,13 +4784,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="178" t="s">
+      <c r="A38" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="180" t="s">
+      <c r="C38" s="183" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -4757,9 +4820,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="178"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="180"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -4787,9 +4850,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="178"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="180"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -4817,9 +4880,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="178"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -4847,13 +4910,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="183" t="s">
+      <c r="B42" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="184" t="s">
+      <c r="C42" s="172" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -4883,9 +4946,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
-      <c r="B43" s="183"/>
-      <c r="C43" s="184"/>
+      <c r="A43" s="169"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -4913,9 +4976,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="184"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -4943,9 +5006,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -4973,62 +5036,62 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="185" t="s">
+      <c r="A46" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="186"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="194" t="s">
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="H46" s="194" t="s">
+      <c r="H46" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="I46" s="194" t="s">
+      <c r="I46" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="194" t="s">
+      <c r="J46" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="K46" s="190"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="190"/>
-      <c r="O46" s="190"/>
-      <c r="P46" s="190"/>
-      <c r="Q46" s="190"/>
-      <c r="R46" s="192"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="148"/>
+      <c r="R46" s="165"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="187"/>
-      <c r="E47" s="195"/>
-      <c r="F47" s="195"/>
-      <c r="G47" s="195"/>
-      <c r="H47" s="195"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="195"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="191"/>
-      <c r="N47" s="191"/>
-      <c r="O47" s="191"/>
-      <c r="P47" s="191"/>
-      <c r="Q47" s="191"/>
-      <c r="R47" s="193"/>
+      <c r="A47" s="173"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="149"/>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="166"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="199" t="s">
+      <c r="A48" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65" t="s">
@@ -5053,12 +5116,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="202" t="s">
+      <c r="A49" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="203"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="204"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="155"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63" t="s">
@@ -5083,12 +5146,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="205" t="s">
+      <c r="A50" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="206"/>
-      <c r="C50" s="206"/>
-      <c r="D50" s="207"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="158"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67" t="s">
@@ -5113,12 +5176,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="208" t="s">
+      <c r="A51" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="209"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="210"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69" t="s">
@@ -5143,12 +5206,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="211" t="s">
+      <c r="A52" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="212"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="213"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71" t="s">
@@ -5173,12 +5236,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="196" t="s">
+      <c r="A53" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="198"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="147"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73" t="s">
@@ -5205,6 +5268,51 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="N46:N47"/>
@@ -5216,51 +5324,6 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5271,8 +5334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5282,94 +5345,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="149"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="156" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="160" t="s">
+      <c r="A4" s="205"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="162"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="213"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -5391,7 +5454,9 @@
       <c r="I5" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="141"/>
+      <c r="J5" s="141" t="s">
+        <v>132</v>
+      </c>
       <c r="K5" s="141"/>
       <c r="L5" s="141"/>
       <c r="M5" s="141"/>
@@ -5402,13 +5467,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="146">
+      <c r="C6" s="197">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -5421,7 +5486,9 @@
       <c r="I6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -5432,9 +5499,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -5445,7 +5512,9 @@
       <c r="I7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -5456,9 +5525,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -5469,7 +5538,9 @@
       <c r="I8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -5480,9 +5551,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -5493,7 +5564,9 @@
       <c r="I9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -5504,13 +5577,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="164">
+      <c r="C10" s="193">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -5523,7 +5596,9 @@
       <c r="I10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -5534,9 +5609,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -5547,7 +5622,9 @@
       <c r="I11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -5558,9 +5635,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -5571,7 +5648,9 @@
       <c r="I12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -5582,9 +5661,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -5595,7 +5674,9 @@
       <c r="I13" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -5606,13 +5687,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="166">
+      <c r="C14" s="195">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -5625,7 +5706,9 @@
       <c r="I14" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
@@ -5636,9 +5719,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -5649,7 +5732,9 @@
       <c r="I15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -5660,9 +5745,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -5673,7 +5758,9 @@
       <c r="I16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -5684,9 +5771,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -5697,7 +5784,9 @@
       <c r="I17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -5708,13 +5797,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="168">
+      <c r="C18" s="189">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -5727,7 +5816,9 @@
       <c r="I18" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="20" t="s">
+        <v>239</v>
+      </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -5738,9 +5829,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -5751,7 +5842,9 @@
       <c r="I19" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
@@ -5762,9 +5855,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="189"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -5775,7 +5868,9 @@
       <c r="I20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
@@ -5786,9 +5881,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -5799,7 +5894,9 @@
       <c r="I21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -5810,13 +5907,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="191">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -5829,7 +5926,9 @@
       <c r="I22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="26"/>
+      <c r="J22" s="26" t="s">
+        <v>240</v>
+      </c>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
@@ -5840,9 +5939,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -5853,7 +5952,9 @@
       <c r="I23" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="J23" s="28"/>
+      <c r="J23" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
@@ -5864,9 +5965,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -5877,7 +5978,9 @@
       <c r="I24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="28"/>
+      <c r="J24" s="28" t="s">
+        <v>234</v>
+      </c>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
@@ -5888,9 +5991,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -5901,7 +6004,9 @@
       <c r="I25" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="30"/>
+      <c r="J25" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
@@ -5912,13 +6017,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="185">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -5931,7 +6036,9 @@
       <c r="I26" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="J26" s="32"/>
+      <c r="J26" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
@@ -5942,9 +6049,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -5955,7 +6062,9 @@
       <c r="I27" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="J27" s="34"/>
+      <c r="J27" s="34" t="s">
+        <v>241</v>
+      </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
@@ -5966,9 +6075,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -5979,7 +6088,9 @@
       <c r="I28" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="34"/>
+      <c r="J28" s="34" t="s">
+        <v>237</v>
+      </c>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -5990,9 +6101,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -6003,7 +6114,9 @@
       <c r="I29" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="J29" s="36"/>
+      <c r="J29" s="36" t="s">
+        <v>68</v>
+      </c>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
@@ -6014,13 +6127,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="174">
+      <c r="C30" s="187">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -6033,7 +6146,9 @@
       <c r="I30" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J30" s="38"/>
+      <c r="J30" s="38" t="s">
+        <v>242</v>
+      </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
@@ -6044,9 +6159,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -6057,7 +6172,9 @@
       <c r="I31" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
@@ -6068,9 +6185,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -6081,7 +6198,9 @@
       <c r="I32" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="40"/>
+      <c r="J32" s="40" t="s">
+        <v>234</v>
+      </c>
       <c r="K32" s="40"/>
       <c r="L32" s="40"/>
       <c r="M32" s="40"/>
@@ -6092,9 +6211,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="187"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -6105,7 +6224,9 @@
       <c r="I33" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="J33" s="54"/>
+      <c r="J33" s="54" t="s">
+        <v>37</v>
+      </c>
       <c r="K33" s="54"/>
       <c r="L33" s="54"/>
       <c r="M33" s="54"/>
@@ -6116,13 +6237,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="180" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -6135,7 +6256,9 @@
       <c r="I34" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="42"/>
+      <c r="J34" s="42" t="s">
+        <v>243</v>
+      </c>
       <c r="K34" s="42"/>
       <c r="L34" s="42"/>
       <c r="M34" s="42"/>
@@ -6146,9 +6269,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="175"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="177"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="180"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -6159,7 +6282,9 @@
       <c r="I35" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="44"/>
+      <c r="J35" s="44" t="s">
+        <v>244</v>
+      </c>
       <c r="K35" s="44"/>
       <c r="L35" s="44"/>
       <c r="M35" s="44"/>
@@ -6170,9 +6295,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="175"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="177"/>
+      <c r="A36" s="178"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="180"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -6183,7 +6308,9 @@
       <c r="I36" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J36" s="44"/>
+      <c r="J36" s="44" t="s">
+        <v>236</v>
+      </c>
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
       <c r="M36" s="44"/>
@@ -6194,9 +6321,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -6207,7 +6334,9 @@
       <c r="I37" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="J37" s="56"/>
+      <c r="J37" s="56" t="s">
+        <v>245</v>
+      </c>
       <c r="K37" s="56"/>
       <c r="L37" s="56"/>
       <c r="M37" s="56"/>
@@ -6218,13 +6347,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="178" t="s">
+      <c r="A38" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="180" t="s">
+      <c r="C38" s="183" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -6237,7 +6366,9 @@
       <c r="I38" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="46"/>
+      <c r="J38" s="46" t="s">
+        <v>246</v>
+      </c>
       <c r="K38" s="46"/>
       <c r="L38" s="46"/>
       <c r="M38" s="46"/>
@@ -6248,9 +6379,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="178"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="180"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -6261,7 +6392,9 @@
       <c r="I39" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="48"/>
+      <c r="J39" s="48" t="s">
+        <v>54</v>
+      </c>
       <c r="K39" s="48"/>
       <c r="L39" s="48"/>
       <c r="M39" s="48"/>
@@ -6272,9 +6405,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="178"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="180"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -6285,7 +6418,9 @@
       <c r="I40" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="48"/>
+      <c r="J40" s="48" t="s">
+        <v>239</v>
+      </c>
       <c r="K40" s="48"/>
       <c r="L40" s="48"/>
       <c r="M40" s="48"/>
@@ -6296,9 +6431,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="178"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -6309,7 +6444,9 @@
       <c r="I41" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J41" s="58"/>
+      <c r="J41" s="58" t="s">
+        <v>107</v>
+      </c>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
@@ -6320,13 +6457,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="183" t="s">
+      <c r="B42" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="184">
+      <c r="C42" s="172">
         <v>2048</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -6339,7 +6476,9 @@
       <c r="I42" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="J42" s="50"/>
+      <c r="J42" s="50" t="s">
+        <v>247</v>
+      </c>
       <c r="K42" s="50"/>
       <c r="L42" s="50"/>
       <c r="M42" s="50"/>
@@ -6350,9 +6489,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
-      <c r="B43" s="183"/>
-      <c r="C43" s="184"/>
+      <c r="A43" s="169"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -6363,7 +6502,9 @@
       <c r="I43" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J43" s="52"/>
+      <c r="J43" s="52" t="s">
+        <v>248</v>
+      </c>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
       <c r="M43" s="52"/>
@@ -6374,9 +6515,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="184"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -6387,7 +6528,9 @@
       <c r="I44" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="J44" s="52"/>
+      <c r="J44" s="52" t="s">
+        <v>249</v>
+      </c>
       <c r="K44" s="52"/>
       <c r="L44" s="52"/>
       <c r="M44" s="52"/>
@@ -6398,9 +6541,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -6411,7 +6554,9 @@
       <c r="I45" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J45" s="52"/>
+      <c r="J45" s="52" t="s">
+        <v>250</v>
+      </c>
       <c r="K45" s="52"/>
       <c r="L45" s="52"/>
       <c r="M45" s="52"/>
@@ -6422,56 +6567,58 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="185" t="s">
+      <c r="A46" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="186"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="188"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="194" t="s">
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="190"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="190"/>
-      <c r="O46" s="190"/>
-      <c r="P46" s="190"/>
-      <c r="Q46" s="190"/>
-      <c r="R46" s="192"/>
+      <c r="J46" s="167" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46" s="148"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="148"/>
+      <c r="R46" s="165"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="187"/>
-      <c r="E47" s="189"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="191"/>
-      <c r="N47" s="191"/>
-      <c r="O47" s="191"/>
-      <c r="P47" s="191"/>
-      <c r="Q47" s="191"/>
-      <c r="R47" s="193"/>
+      <c r="A47" s="173"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="149"/>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="166"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="199" t="s">
+      <c r="A48" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -6479,7 +6626,9 @@
       <c r="I48" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="65"/>
+      <c r="J48" s="65" t="s">
+        <v>235</v>
+      </c>
       <c r="K48" s="65"/>
       <c r="L48" s="65"/>
       <c r="M48" s="65"/>
@@ -6490,12 +6639,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="202" t="s">
+      <c r="A49" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="203"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="204"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="155"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -6503,7 +6652,9 @@
       <c r="I49" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="J49" s="63"/>
+      <c r="J49" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="K49" s="63"/>
       <c r="L49" s="63"/>
       <c r="M49" s="63"/>
@@ -6514,12 +6665,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="205" t="s">
+      <c r="A50" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="206"/>
-      <c r="C50" s="206"/>
-      <c r="D50" s="207"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="158"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -6527,7 +6678,9 @@
       <c r="I50" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="J50" s="67"/>
+      <c r="J50" s="67" t="s">
+        <v>251</v>
+      </c>
       <c r="K50" s="67"/>
       <c r="L50" s="67"/>
       <c r="M50" s="67"/>
@@ -6538,12 +6691,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="208" t="s">
+      <c r="A51" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="209"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="210"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -6551,7 +6704,9 @@
       <c r="I51" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="J51" s="69"/>
+      <c r="J51" s="69" t="s">
+        <v>252</v>
+      </c>
       <c r="K51" s="69"/>
       <c r="L51" s="69"/>
       <c r="M51" s="69"/>
@@ -6562,12 +6717,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="211" t="s">
+      <c r="A52" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="212"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="213"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -6575,7 +6730,9 @@
       <c r="I52" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="J52" s="71"/>
+      <c r="J52" s="71" t="s">
+        <v>253</v>
+      </c>
       <c r="K52" s="71"/>
       <c r="L52" s="71"/>
       <c r="M52" s="71"/>
@@ -6586,12 +6743,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="196" t="s">
+      <c r="A53" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="198"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="147"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
@@ -6599,7 +6756,9 @@
       <c r="I53" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="J53" s="73"/>
+      <c r="J53" s="73" t="s">
+        <v>254</v>
+      </c>
       <c r="K53" s="73"/>
       <c r="L53" s="73"/>
       <c r="M53" s="73"/>
@@ -6612,6 +6771,49 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="N46:N47"/>
@@ -6625,49 +6827,6 @@
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A46:D47"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6677,8 +6836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView topLeftCell="E35" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6688,94 +6847,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="149"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="156" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="160" t="s">
+      <c r="A4" s="205"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="162"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="213"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -6808,13 +6967,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="146">
+      <c r="C6" s="197">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -6825,7 +6984,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -6838,9 +6997,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -6849,7 +7008,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -6862,9 +7021,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -6873,7 +7032,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -6886,9 +7045,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -6897,7 +7056,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -6910,13 +7069,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="164">
+      <c r="C10" s="193">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -6927,7 +7086,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6940,9 +7099,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -6951,7 +7110,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6964,9 +7123,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -6975,7 +7134,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -6988,9 +7147,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -6999,7 +7158,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -7012,13 +7171,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="166">
+      <c r="C14" s="195">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -7029,7 +7188,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
@@ -7042,9 +7201,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -7053,7 +7212,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -7066,9 +7225,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -7077,7 +7236,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -7090,9 +7249,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -7101,7 +7260,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
@@ -7114,13 +7273,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="168">
+      <c r="C18" s="189">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -7131,7 +7290,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
@@ -7144,9 +7303,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -7155,7 +7314,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
@@ -7168,9 +7327,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="189"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -7179,7 +7338,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -7192,9 +7351,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -7203,7 +7362,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -7216,13 +7375,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="191">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -7233,7 +7392,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
@@ -7246,9 +7405,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -7257,7 +7416,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
@@ -7270,9 +7429,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -7281,7 +7440,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
@@ -7294,9 +7453,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -7305,7 +7464,7 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
@@ -7318,13 +7477,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="185">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -7335,7 +7494,7 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
@@ -7348,9 +7507,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -7359,7 +7518,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
@@ -7372,9 +7531,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -7383,7 +7542,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
@@ -7396,9 +7555,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -7407,7 +7566,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="36" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -7420,13 +7579,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="174">
+      <c r="C30" s="187">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -7437,7 +7596,7 @@
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="38" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -7450,9 +7609,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -7461,7 +7620,7 @@
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="J31" s="40"/>
       <c r="K31" s="40"/>
@@ -7474,9 +7633,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -7485,7 +7644,7 @@
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
@@ -7498,9 +7657,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="187"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -7509,7 +7668,7 @@
       <c r="G33" s="54"/>
       <c r="H33" s="54"/>
       <c r="I33" s="54" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="J33" s="54"/>
       <c r="K33" s="54"/>
@@ -7522,13 +7681,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="180" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -7539,7 +7698,7 @@
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="J34" s="42"/>
       <c r="K34" s="42"/>
@@ -7552,9 +7711,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="175"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="177"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="180"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -7563,7 +7722,7 @@
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="44" t="s">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
@@ -7576,9 +7735,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="175"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="177"/>
+      <c r="A36" s="178"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="180"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -7587,7 +7746,7 @@
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
       <c r="I36" s="44" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
@@ -7600,9 +7759,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -7611,7 +7770,7 @@
       <c r="G37" s="56"/>
       <c r="H37" s="56"/>
       <c r="I37" s="56" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="J37" s="56"/>
       <c r="K37" s="56"/>
@@ -7624,13 +7783,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="178" t="s">
+      <c r="A38" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="180" t="s">
+      <c r="C38" s="183" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -7641,7 +7800,7 @@
       <c r="G38" s="46"/>
       <c r="H38" s="46"/>
       <c r="I38" s="46" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="J38" s="46"/>
       <c r="K38" s="46"/>
@@ -7654,9 +7813,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="178"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="180"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -7665,7 +7824,7 @@
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
       <c r="I39" s="48" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
@@ -7678,9 +7837,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="178"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="180"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -7689,7 +7848,7 @@
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
       <c r="I40" s="48" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
@@ -7702,9 +7861,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="178"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -7713,7 +7872,7 @@
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
       <c r="I41" s="58" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
@@ -7726,13 +7885,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="183" t="s">
+      <c r="B42" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="184" t="s">
+      <c r="C42" s="172" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -7743,7 +7902,7 @@
       <c r="G42" s="50"/>
       <c r="H42" s="50"/>
       <c r="I42" s="50" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="J42" s="50"/>
       <c r="K42" s="50"/>
@@ -7756,9 +7915,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
-      <c r="B43" s="183"/>
-      <c r="C43" s="184"/>
+      <c r="A43" s="169"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -7767,7 +7926,7 @@
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="J43" s="52"/>
       <c r="K43" s="52"/>
@@ -7780,9 +7939,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="184"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -7791,7 +7950,7 @@
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="J44" s="52"/>
       <c r="K44" s="52"/>
@@ -7804,9 +7963,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -7815,7 +7974,7 @@
       <c r="G45" s="52"/>
       <c r="H45" s="52"/>
       <c r="I45" s="52" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J45" s="52"/>
       <c r="K45" s="52"/>
@@ -7828,62 +7987,62 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="185" t="s">
+      <c r="A46" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="186"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="188"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="194" t="s">
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="190"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="190"/>
-      <c r="O46" s="190"/>
-      <c r="P46" s="190"/>
-      <c r="Q46" s="190"/>
-      <c r="R46" s="192"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="148"/>
+      <c r="R46" s="165"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="187"/>
-      <c r="E47" s="189"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="191"/>
-      <c r="N47" s="191"/>
-      <c r="O47" s="191"/>
-      <c r="P47" s="191"/>
-      <c r="Q47" s="191"/>
-      <c r="R47" s="193"/>
+      <c r="A47" s="173"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="149"/>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="166"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="199" t="s">
+      <c r="A48" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
       <c r="H48" s="65"/>
       <c r="I48" s="65" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="J48" s="65"/>
       <c r="K48" s="65"/>
@@ -7896,18 +8055,18 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="202" t="s">
+      <c r="A49" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="203"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="204"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="155"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
       <c r="H49" s="63"/>
       <c r="I49" s="63" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="J49" s="63"/>
       <c r="K49" s="63"/>
@@ -7920,18 +8079,18 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="205" t="s">
+      <c r="A50" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="206"/>
-      <c r="C50" s="206"/>
-      <c r="D50" s="207"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="158"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
       <c r="H50" s="67"/>
       <c r="I50" s="67" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="J50" s="67"/>
       <c r="K50" s="67"/>
@@ -7944,18 +8103,18 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="208" t="s">
+      <c r="A51" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="209"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="210"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
       <c r="I51" s="69" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="J51" s="69"/>
       <c r="K51" s="69"/>
@@ -7968,18 +8127,18 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="211" t="s">
+      <c r="A52" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="212"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="213"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
       <c r="H52" s="71"/>
       <c r="I52" s="71" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J52" s="71"/>
       <c r="K52" s="71"/>
@@ -7992,18 +8151,18 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="196" t="s">
+      <c r="A53" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="198"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="147"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
       <c r="H53" s="73"/>
       <c r="I53" s="73" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="J53" s="73"/>
       <c r="K53" s="73"/>
@@ -8083,8 +8242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8094,94 +8253,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="149"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="156" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="160" t="s">
+      <c r="A4" s="205"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="162"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="213"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -8214,13 +8373,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="146">
+      <c r="C6" s="197">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -8231,7 +8390,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -8244,9 +8403,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -8255,7 +8414,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -8268,9 +8427,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -8279,7 +8438,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -8292,9 +8451,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -8303,7 +8462,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -8316,13 +8475,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="164">
+      <c r="C10" s="193">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -8333,7 +8492,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -8346,9 +8505,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -8357,7 +8516,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -8370,9 +8529,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -8381,7 +8540,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -8394,9 +8553,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -8405,7 +8564,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -8418,13 +8577,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="166">
+      <c r="C14" s="195">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -8435,7 +8594,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
@@ -8448,9 +8607,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -8459,7 +8618,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -8472,9 +8631,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -8483,7 +8642,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -8496,9 +8655,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -8507,7 +8666,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
@@ -8520,13 +8679,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="168">
+      <c r="C18" s="189">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -8537,7 +8696,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
@@ -8550,9 +8709,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -8561,7 +8720,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
@@ -8574,9 +8733,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="189"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -8585,7 +8744,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -8598,9 +8757,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -8609,7 +8768,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -8622,13 +8781,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="191">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -8639,7 +8798,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
@@ -8652,9 +8811,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -8663,7 +8822,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
@@ -8676,9 +8835,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -8687,7 +8846,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
@@ -8700,9 +8859,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -8711,7 +8870,7 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
@@ -8724,13 +8883,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="185">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -8741,7 +8900,7 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
@@ -8754,9 +8913,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -8765,7 +8924,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
@@ -8778,9 +8937,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -8789,7 +8948,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
@@ -8802,9 +8961,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -8813,7 +8972,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="36" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -8826,13 +8985,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="174">
+      <c r="C30" s="187">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -8843,7 +9002,7 @@
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="38" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -8856,9 +9015,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -8867,7 +9026,7 @@
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="J31" s="40"/>
       <c r="K31" s="40"/>
@@ -8880,9 +9039,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -8891,7 +9050,7 @@
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
@@ -8904,9 +9063,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="187"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -8915,7 +9074,7 @@
       <c r="G33" s="54"/>
       <c r="H33" s="54"/>
       <c r="I33" s="54" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="J33" s="54"/>
       <c r="K33" s="54"/>
@@ -8928,13 +9087,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="180" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -8945,7 +9104,7 @@
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="J34" s="42"/>
       <c r="K34" s="42"/>
@@ -8958,9 +9117,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="175"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="177"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="180"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -8969,7 +9128,7 @@
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="44" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
@@ -8982,9 +9141,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="175"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="177"/>
+      <c r="A36" s="178"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="180"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -8993,7 +9152,7 @@
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
       <c r="I36" s="44" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
@@ -9006,9 +9165,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -9017,7 +9176,7 @@
       <c r="G37" s="56"/>
       <c r="H37" s="56"/>
       <c r="I37" s="56" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="J37" s="56"/>
       <c r="K37" s="56"/>
@@ -9030,13 +9189,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="178" t="s">
+      <c r="A38" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="180" t="s">
+      <c r="C38" s="183" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -9047,7 +9206,7 @@
       <c r="G38" s="46"/>
       <c r="H38" s="46"/>
       <c r="I38" s="46" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="J38" s="46"/>
       <c r="K38" s="46"/>
@@ -9060,9 +9219,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="178"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="180"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -9071,7 +9230,7 @@
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
       <c r="I39" s="48" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
@@ -9084,9 +9243,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="178"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="180"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -9095,7 +9254,7 @@
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
       <c r="I40" s="48" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
@@ -9108,9 +9267,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="178"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -9119,7 +9278,7 @@
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
       <c r="I41" s="58" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
@@ -9132,13 +9291,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="183" t="s">
+      <c r="B42" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="184" t="s">
+      <c r="C42" s="172" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -9149,7 +9308,7 @@
       <c r="G42" s="50"/>
       <c r="H42" s="50"/>
       <c r="I42" s="50" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="J42" s="50"/>
       <c r="K42" s="50"/>
@@ -9162,9 +9321,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
-      <c r="B43" s="183"/>
-      <c r="C43" s="184"/>
+      <c r="A43" s="169"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -9173,7 +9332,7 @@
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="J43" s="52"/>
       <c r="K43" s="52"/>
@@ -9186,9 +9345,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="184"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -9197,7 +9356,7 @@
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="J44" s="52"/>
       <c r="K44" s="52"/>
@@ -9210,9 +9369,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -9221,7 +9380,7 @@
       <c r="G45" s="52"/>
       <c r="H45" s="52"/>
       <c r="I45" s="52" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="J45" s="52"/>
       <c r="K45" s="52"/>
@@ -9234,62 +9393,62 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="185" t="s">
+      <c r="A46" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="186"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="188"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="194" t="s">
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="190"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="190"/>
-      <c r="O46" s="190"/>
-      <c r="P46" s="190"/>
-      <c r="Q46" s="190"/>
-      <c r="R46" s="192"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="148"/>
+      <c r="R46" s="165"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="187"/>
-      <c r="E47" s="189"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="191"/>
-      <c r="N47" s="191"/>
-      <c r="O47" s="191"/>
-      <c r="P47" s="191"/>
-      <c r="Q47" s="191"/>
-      <c r="R47" s="193"/>
+      <c r="A47" s="173"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="149"/>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="166"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="199" t="s">
+      <c r="A48" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
       <c r="H48" s="65"/>
       <c r="I48" s="65" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="J48" s="65"/>
       <c r="K48" s="65"/>
@@ -9302,18 +9461,18 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="202" t="s">
+      <c r="A49" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="203"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="204"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="155"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
       <c r="H49" s="63"/>
       <c r="I49" s="63" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="J49" s="63"/>
       <c r="K49" s="63"/>
@@ -9326,18 +9485,18 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="205" t="s">
+      <c r="A50" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="206"/>
-      <c r="C50" s="206"/>
-      <c r="D50" s="207"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="158"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
       <c r="H50" s="67"/>
       <c r="I50" s="67" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="J50" s="67"/>
       <c r="K50" s="67"/>
@@ -9350,18 +9509,18 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="208" t="s">
+      <c r="A51" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="209"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="210"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
       <c r="I51" s="69" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="J51" s="69"/>
       <c r="K51" s="69"/>
@@ -9374,18 +9533,18 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="211" t="s">
+      <c r="A52" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="212"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="213"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
       <c r="H52" s="71"/>
       <c r="I52" s="71" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="J52" s="71"/>
       <c r="K52" s="71"/>
@@ -9398,18 +9557,18 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="196" t="s">
+      <c r="A53" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="198"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="147"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
       <c r="H53" s="73"/>
       <c r="I53" s="73" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="J53" s="73"/>
       <c r="K53" s="73"/>
@@ -9424,16 +9583,17 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="F46:F47"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
     <mergeCell ref="Q46:Q47"/>
     <mergeCell ref="R46:R47"/>
     <mergeCell ref="G46:G47"/>
@@ -9447,7 +9607,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="A46:D47"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:C37"/>
@@ -9472,14 +9631,14 @@
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:R1"/>
     <mergeCell ref="A2:D4"/>
     <mergeCell ref="E2:R3"/>
     <mergeCell ref="E4:R4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9500,94 +9659,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="149"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="156" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="160" t="s">
+      <c r="A4" s="205"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="162"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="213"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -9620,13 +9779,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="146">
+      <c r="C6" s="197">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -9648,9 +9807,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -9670,9 +9829,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -9692,9 +9851,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -9714,13 +9873,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="164">
+      <c r="C10" s="193">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -9742,9 +9901,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -9764,9 +9923,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -9786,9 +9945,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -9808,13 +9967,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="166">
+      <c r="C14" s="195">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -9836,9 +9995,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -9858,9 +10017,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -9880,9 +10039,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -9902,13 +10061,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="168">
+      <c r="C18" s="189">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -9930,9 +10089,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -9952,9 +10111,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="189"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -9974,9 +10133,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -9996,13 +10155,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="191">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -10024,9 +10183,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -10046,9 +10205,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -10068,9 +10227,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -10090,13 +10249,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="185">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -10118,9 +10277,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -10140,9 +10299,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -10162,9 +10321,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -10184,13 +10343,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="174">
+      <c r="C30" s="187">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -10212,9 +10371,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -10234,9 +10393,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -10256,9 +10415,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="187"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -10278,13 +10437,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="180" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -10306,9 +10465,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="175"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="177"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="180"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -10328,9 +10487,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="175"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="177"/>
+      <c r="A36" s="178"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="180"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -10350,9 +10509,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -10372,13 +10531,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="178" t="s">
+      <c r="A38" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="180" t="s">
+      <c r="C38" s="183" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -10400,9 +10559,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="178"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="180"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -10422,9 +10581,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="178"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="180"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -10444,9 +10603,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="178"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -10466,13 +10625,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="183" t="s">
+      <c r="B42" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="184" t="s">
+      <c r="C42" s="172" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -10494,9 +10653,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
-      <c r="B43" s="183"/>
-      <c r="C43" s="184"/>
+      <c r="A43" s="169"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -10516,9 +10675,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="184"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -10538,9 +10697,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -10560,56 +10719,56 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="185" t="s">
+      <c r="A46" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="186"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="188"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="194" t="s">
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="190"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="190"/>
-      <c r="O46" s="190"/>
-      <c r="P46" s="190"/>
-      <c r="Q46" s="190"/>
-      <c r="R46" s="192"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="148"/>
+      <c r="R46" s="165"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="187"/>
-      <c r="E47" s="189"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="191"/>
-      <c r="N47" s="191"/>
-      <c r="O47" s="191"/>
-      <c r="P47" s="191"/>
-      <c r="Q47" s="191"/>
-      <c r="R47" s="193"/>
+      <c r="A47" s="173"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="149"/>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="166"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="199" t="s">
+      <c r="A48" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -10626,12 +10785,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="202" t="s">
+      <c r="A49" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="203"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="204"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="155"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -10648,12 +10807,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="205" t="s">
+      <c r="A50" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="206"/>
-      <c r="C50" s="206"/>
-      <c r="D50" s="207"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="158"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -10670,12 +10829,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="208" t="s">
+      <c r="A51" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="209"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="210"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -10692,12 +10851,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="211" t="s">
+      <c r="A52" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="212"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="213"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -10714,12 +10873,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="196" t="s">
+      <c r="A53" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="198"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="147"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
@@ -10738,11 +10897,41 @@
     <row r="54" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
     <mergeCell ref="A2:D4"/>
     <mergeCell ref="E4:R4"/>
     <mergeCell ref="A1:I1"/>
@@ -10759,41 +10948,11 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E2:R3"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/extras/Library speed comparisons.xlsx
+++ b/extras/Library speed comparisons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prajwal/github/SPIMemory/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B011D89-1C29-E944-94B7-99B36D55914E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D8ADE-45CB-8B49-81C2-32ACFED03D0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="292">
   <si>
     <t>Function</t>
   </si>
@@ -904,17 +904,33 @@
   </si>
   <si>
     <t>eraseSection(72K)</t>
+  </si>
+  <si>
+    <t>v3.4.0</t>
+  </si>
+  <si>
+    <t>v3.5.0</t>
+  </si>
+  <si>
+    <t>Other Functions</t>
+  </si>
+  <si>
+    <t>Library instantiation time</t>
+  </si>
+  <si>
+    <t>flash.begin() runtime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="ss.000.000"/>
-    <numFmt numFmtId="167" formatCode="0\ &quot;µs&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\ &quot;µs&quot;"/>
-    <numFmt numFmtId="171" formatCode="0.00\ &quot;ms&quot;"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;µs&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.00\ &quot;µs&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\ &quot;ms&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.000\ &quot;ms&quot;"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1133,7 +1149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1736,11 +1752,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1903,6 +1997,59 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1981,6 +2128,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1993,29 +2149,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2038,17 +2173,20 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2104,6 +2242,30 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2113,77 +2275,33 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2474,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2487,94 +2605,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
     </row>
     <row r="2" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="157" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="161" t="s">
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="163"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
@@ -2601,8 +2719,12 @@
       <c r="H5" s="141" t="s">
         <v>285</v>
       </c>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
+      <c r="I5" s="141" t="s">
+        <v>287</v>
+      </c>
+      <c r="J5" s="141" t="s">
+        <v>288</v>
+      </c>
       <c r="K5" s="141"/>
       <c r="L5" s="141"/>
       <c r="M5" s="141"/>
@@ -2613,13 +2735,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="147">
+      <c r="C6" s="200">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -2628,64 +2750,72 @@
       <c r="E6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="216">
+      <c r="F6" s="146">
         <v>99</v>
       </c>
-      <c r="G6" s="216">
+      <c r="G6" s="146">
         <v>108</v>
       </c>
-      <c r="H6" s="216">
+      <c r="H6" s="146">
         <v>112</v>
       </c>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="217"/>
+      <c r="I6" s="146">
+        <v>109</v>
+      </c>
+      <c r="J6" s="146">
+        <v>109</v>
+      </c>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="147"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="218">
+      <c r="F7" s="148">
         <v>47</v>
       </c>
-      <c r="G7" s="218">
+      <c r="G7" s="148">
         <v>52</v>
       </c>
-      <c r="H7" s="218">
+      <c r="H7" s="148">
         <v>50</v>
       </c>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="219"/>
+      <c r="I7" s="148">
+        <v>50</v>
+      </c>
+      <c r="J7" s="148">
+        <v>50</v>
+      </c>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="149"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="165">
+      <c r="C8" s="218">
         <v>8</v>
       </c>
       <c r="D8" s="114" t="s">
@@ -2694,64 +2824,72 @@
       <c r="E8" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="220">
+      <c r="F8" s="150">
         <v>111</v>
       </c>
-      <c r="G8" s="220">
+      <c r="G8" s="150">
         <v>120</v>
       </c>
-      <c r="H8" s="220">
+      <c r="H8" s="150">
         <v>120</v>
       </c>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="220"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="220"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="221"/>
+      <c r="I8" s="150">
+        <v>120</v>
+      </c>
+      <c r="J8" s="150">
+        <v>120</v>
+      </c>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="151"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="164"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="165"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="218"/>
       <c r="D9" s="115" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="222">
+      <c r="F9" s="152">
         <v>47</v>
       </c>
-      <c r="G9" s="222">
+      <c r="G9" s="152">
         <v>48</v>
       </c>
-      <c r="H9" s="222">
+      <c r="H9" s="152">
         <v>52</v>
       </c>
-      <c r="I9" s="222"/>
-      <c r="J9" s="222"/>
-      <c r="K9" s="222"/>
-      <c r="L9" s="222"/>
-      <c r="M9" s="222"/>
-      <c r="N9" s="222"/>
-      <c r="O9" s="222"/>
-      <c r="P9" s="222"/>
-      <c r="Q9" s="222"/>
-      <c r="R9" s="223"/>
+      <c r="I9" s="152">
+        <v>50</v>
+      </c>
+      <c r="J9" s="152">
+        <v>50</v>
+      </c>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="153"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="167">
+      <c r="C10" s="220">
         <v>16</v>
       </c>
       <c r="D10" s="117" t="s">
@@ -2760,64 +2898,72 @@
       <c r="E10" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F10" s="224">
+      <c r="F10" s="154">
         <v>129</v>
       </c>
-      <c r="G10" s="224">
+      <c r="G10" s="154">
         <v>128</v>
       </c>
-      <c r="H10" s="224">
+      <c r="H10" s="154">
         <v>126</v>
       </c>
-      <c r="I10" s="224"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="225"/>
+      <c r="I10" s="154">
+        <v>126</v>
+      </c>
+      <c r="J10" s="154">
+        <v>126</v>
+      </c>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="155"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="166"/>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
+      <c r="A11" s="219"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="220"/>
       <c r="D11" s="118" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="226">
+      <c r="F11" s="156">
         <v>50</v>
       </c>
-      <c r="G11" s="226">
+      <c r="G11" s="156">
         <v>48</v>
       </c>
-      <c r="H11" s="226">
+      <c r="H11" s="156">
         <v>52</v>
       </c>
-      <c r="I11" s="226"/>
-      <c r="J11" s="226"/>
-      <c r="K11" s="226"/>
-      <c r="L11" s="226"/>
-      <c r="M11" s="226"/>
-      <c r="N11" s="226"/>
-      <c r="O11" s="226"/>
-      <c r="P11" s="226"/>
-      <c r="Q11" s="226"/>
-      <c r="R11" s="227"/>
+      <c r="I11" s="156">
+        <v>52</v>
+      </c>
+      <c r="J11" s="156">
+        <v>52</v>
+      </c>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="157"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="169">
+      <c r="C12" s="222">
         <v>16</v>
       </c>
       <c r="D12" s="120" t="s">
@@ -2826,64 +2972,72 @@
       <c r="E12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="228">
+      <c r="F12" s="158">
         <v>129</v>
       </c>
-      <c r="G12" s="228">
+      <c r="G12" s="158">
         <v>126</v>
       </c>
-      <c r="H12" s="228">
+      <c r="H12" s="158">
         <v>126</v>
       </c>
-      <c r="I12" s="228"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="228"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="228"/>
-      <c r="N12" s="228"/>
-      <c r="O12" s="228"/>
-      <c r="P12" s="228"/>
-      <c r="Q12" s="228"/>
-      <c r="R12" s="229"/>
+      <c r="I12" s="158">
+        <v>126</v>
+      </c>
+      <c r="J12" s="158">
+        <v>126</v>
+      </c>
+      <c r="K12" s="158"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="159"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="168"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="222"/>
       <c r="D13" s="121" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="230">
+      <c r="F13" s="160">
         <v>50</v>
       </c>
-      <c r="G13" s="230">
+      <c r="G13" s="160">
         <v>48</v>
       </c>
-      <c r="H13" s="230">
+      <c r="H13" s="160">
         <v>52</v>
       </c>
-      <c r="I13" s="230"/>
-      <c r="J13" s="230"/>
-      <c r="K13" s="230"/>
-      <c r="L13" s="230"/>
-      <c r="M13" s="230"/>
-      <c r="N13" s="230"/>
-      <c r="O13" s="230"/>
-      <c r="P13" s="230"/>
-      <c r="Q13" s="230"/>
-      <c r="R13" s="231"/>
+      <c r="I13" s="160">
+        <v>52</v>
+      </c>
+      <c r="J13" s="160">
+        <v>52</v>
+      </c>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="161"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="171">
+      <c r="C14" s="224">
         <v>32</v>
       </c>
       <c r="D14" s="123" t="s">
@@ -2892,64 +3046,72 @@
       <c r="E14" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="232">
+      <c r="F14" s="162">
         <v>144</v>
       </c>
-      <c r="G14" s="232">
+      <c r="G14" s="162">
         <v>140</v>
       </c>
-      <c r="H14" s="232">
+      <c r="H14" s="162">
         <v>142</v>
       </c>
-      <c r="I14" s="232"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="232"/>
-      <c r="O14" s="232"/>
-      <c r="P14" s="232"/>
-      <c r="Q14" s="232"/>
-      <c r="R14" s="233"/>
+      <c r="I14" s="162">
+        <v>152</v>
+      </c>
+      <c r="J14" s="162">
+        <v>152</v>
+      </c>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="163"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="170"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
+      <c r="A15" s="223"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
       <c r="D15" s="124" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="234">
+      <c r="F15" s="164">
         <v>55</v>
       </c>
-      <c r="G15" s="234">
+      <c r="G15" s="164">
         <v>54</v>
       </c>
-      <c r="H15" s="234">
+      <c r="H15" s="164">
         <v>60</v>
       </c>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="234"/>
-      <c r="P15" s="234"/>
-      <c r="Q15" s="234"/>
-      <c r="R15" s="235"/>
+      <c r="I15" s="164">
+        <v>57</v>
+      </c>
+      <c r="J15" s="164">
+        <v>57</v>
+      </c>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="165"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="229">
         <v>32</v>
       </c>
       <c r="D16" s="126" t="s">
@@ -2958,64 +3120,72 @@
       <c r="E16" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F16" s="236">
+      <c r="F16" s="166">
         <v>132</v>
       </c>
-      <c r="G16" s="236">
+      <c r="G16" s="166">
         <v>142</v>
       </c>
-      <c r="H16" s="236">
+      <c r="H16" s="166">
         <v>142</v>
       </c>
-      <c r="I16" s="236"/>
-      <c r="J16" s="236"/>
-      <c r="K16" s="236"/>
-      <c r="L16" s="236"/>
-      <c r="M16" s="236"/>
-      <c r="N16" s="236"/>
-      <c r="O16" s="236"/>
-      <c r="P16" s="236"/>
-      <c r="Q16" s="236"/>
-      <c r="R16" s="237"/>
+      <c r="I16" s="166">
+        <v>141</v>
+      </c>
+      <c r="J16" s="166">
+        <v>141</v>
+      </c>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="167"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="172"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
+      <c r="A17" s="228"/>
+      <c r="B17" s="229"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="127" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="F17" s="238">
+      <c r="F17" s="168">
         <v>55</v>
       </c>
-      <c r="G17" s="238">
+      <c r="G17" s="168">
         <v>54</v>
       </c>
-      <c r="H17" s="238">
+      <c r="H17" s="168">
         <v>60</v>
       </c>
-      <c r="I17" s="238"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="238"/>
-      <c r="O17" s="238"/>
-      <c r="P17" s="238"/>
-      <c r="Q17" s="238"/>
-      <c r="R17" s="239"/>
+      <c r="I17" s="168">
+        <v>57</v>
+      </c>
+      <c r="J17" s="168">
+        <v>57</v>
+      </c>
+      <c r="K17" s="168"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="168"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="169"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="174" t="s">
+      <c r="A18" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="175">
+      <c r="C18" s="231">
         <v>32</v>
       </c>
       <c r="D18" s="129" t="s">
@@ -3024,64 +3194,72 @@
       <c r="E18" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="F18" s="240">
+      <c r="F18" s="170">
         <v>143</v>
       </c>
-      <c r="G18" s="240">
+      <c r="G18" s="170">
         <v>142</v>
       </c>
-      <c r="H18" s="240">
+      <c r="H18" s="170">
         <v>142</v>
       </c>
-      <c r="I18" s="240"/>
-      <c r="J18" s="240"/>
-      <c r="K18" s="240"/>
-      <c r="L18" s="240"/>
-      <c r="M18" s="240"/>
-      <c r="N18" s="240"/>
-      <c r="O18" s="240"/>
-      <c r="P18" s="240"/>
-      <c r="Q18" s="240"/>
-      <c r="R18" s="241"/>
+      <c r="I18" s="170">
+        <v>141</v>
+      </c>
+      <c r="J18" s="170">
+        <v>141</v>
+      </c>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="171"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="174"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
+      <c r="A19" s="230"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="231"/>
       <c r="D19" s="130" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="242">
+      <c r="F19" s="172">
         <v>55</v>
       </c>
-      <c r="G19" s="242">
+      <c r="G19" s="172">
         <v>54</v>
       </c>
-      <c r="H19" s="242">
+      <c r="H19" s="172">
         <v>60</v>
       </c>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="242"/>
-      <c r="L19" s="242"/>
-      <c r="M19" s="242"/>
-      <c r="N19" s="242"/>
-      <c r="O19" s="242"/>
-      <c r="P19" s="242"/>
-      <c r="Q19" s="242"/>
-      <c r="R19" s="243"/>
+      <c r="I19" s="172">
+        <v>57</v>
+      </c>
+      <c r="J19" s="172">
+        <v>57</v>
+      </c>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="173"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="180" t="s">
+      <c r="B20" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="181" t="s">
+      <c r="C20" s="227" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="135" t="s">
@@ -3090,64 +3268,72 @@
       <c r="E20" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="F20" s="248">
+      <c r="F20" s="178">
         <v>292</v>
       </c>
-      <c r="G20" s="248">
+      <c r="G20" s="178">
         <v>306</v>
       </c>
-      <c r="H20" s="248">
+      <c r="H20" s="178">
         <v>310</v>
       </c>
-      <c r="I20" s="248"/>
-      <c r="J20" s="248"/>
-      <c r="K20" s="248"/>
-      <c r="L20" s="248"/>
-      <c r="M20" s="248"/>
-      <c r="N20" s="248"/>
-      <c r="O20" s="248"/>
-      <c r="P20" s="248"/>
-      <c r="Q20" s="248"/>
-      <c r="R20" s="249"/>
+      <c r="I20" s="178">
+        <v>343</v>
+      </c>
+      <c r="J20" s="178">
+        <v>343</v>
+      </c>
+      <c r="K20" s="178"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="178"/>
+      <c r="O20" s="178"/>
+      <c r="P20" s="178"/>
+      <c r="Q20" s="178"/>
+      <c r="R20" s="179"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="179"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
+      <c r="A21" s="225"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="227"/>
       <c r="D21" s="136" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="250">
+      <c r="F21" s="180">
         <v>105</v>
       </c>
-      <c r="G21" s="250">
+      <c r="G21" s="180">
         <v>100</v>
       </c>
-      <c r="H21" s="250">
+      <c r="H21" s="180">
         <v>106</v>
       </c>
-      <c r="I21" s="250"/>
-      <c r="J21" s="250"/>
-      <c r="K21" s="250"/>
-      <c r="L21" s="250"/>
-      <c r="M21" s="250"/>
-      <c r="N21" s="250"/>
-      <c r="O21" s="250"/>
-      <c r="P21" s="250"/>
-      <c r="Q21" s="250"/>
-      <c r="R21" s="251"/>
+      <c r="I21" s="180">
+        <v>104</v>
+      </c>
+      <c r="J21" s="180">
+        <v>104</v>
+      </c>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="180"/>
+      <c r="Q21" s="180"/>
+      <c r="R21" s="181"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="185" t="s">
+      <c r="C22" s="234" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="138" t="s">
@@ -3156,64 +3342,72 @@
       <c r="E22" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F22" s="252" t="s">
+      <c r="F22" s="182" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="252">
+      <c r="G22" s="182">
         <v>2310</v>
       </c>
-      <c r="H22" s="252">
+      <c r="H22" s="182">
         <v>2350</v>
       </c>
-      <c r="I22" s="252"/>
-      <c r="J22" s="252"/>
-      <c r="K22" s="252"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="252"/>
-      <c r="N22" s="252"/>
-      <c r="O22" s="252"/>
-      <c r="P22" s="252"/>
-      <c r="Q22" s="252"/>
-      <c r="R22" s="253"/>
+      <c r="I22" s="182">
+        <v>2660</v>
+      </c>
+      <c r="J22" s="182">
+        <v>2660</v>
+      </c>
+      <c r="K22" s="182"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="183"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="182"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="185"/>
+      <c r="A23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="234"/>
       <c r="D23" s="139" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="254" t="s">
+      <c r="F23" s="184" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="254">
+      <c r="G23" s="184">
         <v>552</v>
       </c>
-      <c r="H23" s="254">
+      <c r="H23" s="184">
         <v>544</v>
       </c>
-      <c r="I23" s="254"/>
-      <c r="J23" s="254"/>
-      <c r="K23" s="254"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="254"/>
-      <c r="N23" s="254"/>
-      <c r="O23" s="254"/>
-      <c r="P23" s="254"/>
-      <c r="Q23" s="254"/>
-      <c r="R23" s="255"/>
+      <c r="I23" s="184">
+        <v>551</v>
+      </c>
+      <c r="J23" s="184">
+        <v>551</v>
+      </c>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="185"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="178" t="s">
+      <c r="C24" s="242" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="132" t="s">
@@ -3222,354 +3416,450 @@
       <c r="E24" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="F24" s="244">
+      <c r="F24" s="174">
         <v>209</v>
       </c>
-      <c r="G24" s="244">
+      <c r="G24" s="174">
         <v>212</v>
       </c>
-      <c r="H24" s="244">
+      <c r="H24" s="174">
         <v>450</v>
       </c>
-      <c r="I24" s="244"/>
-      <c r="J24" s="244"/>
-      <c r="K24" s="244"/>
-      <c r="L24" s="244"/>
-      <c r="M24" s="244"/>
-      <c r="N24" s="244"/>
-      <c r="O24" s="244"/>
-      <c r="P24" s="244"/>
-      <c r="Q24" s="244"/>
-      <c r="R24" s="245"/>
+      <c r="I24" s="174">
+        <v>480</v>
+      </c>
+      <c r="J24" s="174">
+        <v>480</v>
+      </c>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="175"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="176"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
+      <c r="A25" s="240"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="242"/>
       <c r="D25" s="133" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="F25" s="246">
+      <c r="F25" s="176">
         <v>73</v>
       </c>
-      <c r="G25" s="246">
+      <c r="G25" s="176">
         <v>74</v>
       </c>
-      <c r="H25" s="246">
+      <c r="H25" s="176">
         <v>176</v>
       </c>
-      <c r="I25" s="246"/>
-      <c r="J25" s="246"/>
-      <c r="K25" s="246"/>
-      <c r="L25" s="246"/>
-      <c r="M25" s="246"/>
-      <c r="N25" s="246"/>
-      <c r="O25" s="246"/>
-      <c r="P25" s="246"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="247"/>
+      <c r="I25" s="176">
+        <v>181</v>
+      </c>
+      <c r="J25" s="176">
+        <v>177</v>
+      </c>
+      <c r="K25" s="176"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="176"/>
+      <c r="O25" s="176"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="176"/>
+      <c r="R25" s="177"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="186" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="189" t="str">
+      <c r="A26" s="235" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
+      <c r="E26" s="238" t="str">
         <f>E5</f>
         <v>v2.7.0</v>
       </c>
-      <c r="F26" s="189" t="str">
+      <c r="F26" s="238" t="str">
         <f>F5</f>
         <v>v3.2.0</v>
       </c>
-      <c r="G26" s="189" t="str">
+      <c r="G26" s="238" t="str">
         <f t="shared" ref="G26:R26" si="0">G5</f>
         <v>v3.2.1</v>
       </c>
-      <c r="H26" s="189" t="str">
+      <c r="H26" s="238" t="str">
         <f t="shared" si="0"/>
         <v>v3.3.0</v>
       </c>
-      <c r="I26" s="189">
+      <c r="I26" s="238" t="str">
+        <f t="shared" si="0"/>
+        <v>v3.4.0</v>
+      </c>
+      <c r="J26" s="238" t="str">
+        <f t="shared" si="0"/>
+        <v>v3.5.0</v>
+      </c>
+      <c r="K26" s="238">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="189">
+      <c r="L26" s="238">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="189">
+      <c r="M26" s="238">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="189">
+      <c r="N26" s="238">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="189">
+      <c r="O26" s="238">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N26" s="189">
+      <c r="P26" s="238">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="189">
+      <c r="Q26" s="238">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="189">
+      <c r="R26" s="243">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="189">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="256">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="186"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="190"/>
-      <c r="L27" s="190"/>
-      <c r="M27" s="190"/>
-      <c r="N27" s="190"/>
-      <c r="O27" s="190"/>
-      <c r="P27" s="190"/>
-      <c r="Q27" s="190"/>
-      <c r="R27" s="257"/>
+      <c r="A27" s="235"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="239"/>
+      <c r="G27" s="239"/>
+      <c r="H27" s="239"/>
+      <c r="I27" s="239"/>
+      <c r="J27" s="239"/>
+      <c r="K27" s="239"/>
+      <c r="L27" s="239"/>
+      <c r="M27" s="239"/>
+      <c r="N27" s="239"/>
+      <c r="O27" s="239"/>
+      <c r="P27" s="239"/>
+      <c r="Q27" s="239"/>
+      <c r="R27" s="244"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="198" t="s">
+      <c r="A28" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="199"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="200"/>
+      <c r="B28" s="249"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="250"/>
       <c r="E28" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="F28" s="262">
+      <c r="F28" s="187">
         <v>56</v>
       </c>
-      <c r="G28" s="262">
+      <c r="G28" s="187">
         <v>56</v>
       </c>
-      <c r="H28" s="262">
+      <c r="H28" s="187">
         <v>55</v>
       </c>
-      <c r="I28" s="262"/>
-      <c r="J28" s="262"/>
-      <c r="K28" s="262"/>
-      <c r="L28" s="262"/>
-      <c r="M28" s="262"/>
-      <c r="N28" s="262"/>
-      <c r="O28" s="262"/>
-      <c r="P28" s="262"/>
-      <c r="Q28" s="262"/>
-      <c r="R28" s="263"/>
+      <c r="I28" s="187">
+        <v>56</v>
+      </c>
+      <c r="J28" s="187">
+        <v>56</v>
+      </c>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="187"/>
+      <c r="P28" s="187"/>
+      <c r="Q28" s="187"/>
+      <c r="R28" s="188"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="201" t="s">
+      <c r="A29" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="202"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="252"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="253"/>
       <c r="E29" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="264">
+      <c r="F29" s="189">
         <v>47</v>
       </c>
-      <c r="G29" s="264">
+      <c r="G29" s="189">
         <v>47</v>
       </c>
-      <c r="H29" s="264">
+      <c r="H29" s="189">
         <v>47</v>
       </c>
-      <c r="I29" s="264"/>
-      <c r="J29" s="264"/>
-      <c r="K29" s="264"/>
-      <c r="L29" s="264"/>
-      <c r="M29" s="264"/>
-      <c r="N29" s="264"/>
-      <c r="O29" s="264"/>
-      <c r="P29" s="264"/>
-      <c r="Q29" s="264"/>
-      <c r="R29" s="265"/>
+      <c r="I29" s="189">
+        <v>47</v>
+      </c>
+      <c r="J29" s="189">
+        <v>47</v>
+      </c>
+      <c r="K29" s="189"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="190"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="204" t="s">
+      <c r="A30" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="205"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
+      <c r="B30" s="255"/>
+      <c r="C30" s="255"/>
+      <c r="D30" s="256"/>
       <c r="E30" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="F30" s="269">
+      <c r="F30" s="191">
         <v>29.82</v>
       </c>
-      <c r="G30" s="269">
-        <v>30.65</v>
-      </c>
-      <c r="H30" s="269">
+      <c r="G30" s="191">
+        <v>28.22</v>
+      </c>
+      <c r="H30" s="191">
         <v>27.45</v>
       </c>
-      <c r="I30" s="269"/>
-      <c r="J30" s="269"/>
-      <c r="K30" s="269"/>
-      <c r="L30" s="269"/>
-      <c r="M30" s="269"/>
-      <c r="N30" s="269"/>
-      <c r="O30" s="269"/>
-      <c r="P30" s="269"/>
-      <c r="Q30" s="269"/>
-      <c r="R30" s="270"/>
+      <c r="I30" s="191">
+        <v>29.26</v>
+      </c>
+      <c r="J30" s="191">
+        <v>28.23</v>
+      </c>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="192"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="207" t="s">
+      <c r="A31" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="208"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="209"/>
+      <c r="B31" s="258"/>
+      <c r="C31" s="258"/>
+      <c r="D31" s="259"/>
       <c r="E31" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="F31" s="271">
+      <c r="F31" s="193">
         <v>116.03</v>
       </c>
-      <c r="G31" s="271">
-        <v>115.08</v>
-      </c>
-      <c r="H31" s="271">
+      <c r="G31" s="193">
+        <v>95.93</v>
+      </c>
+      <c r="H31" s="193">
         <v>120.48</v>
       </c>
-      <c r="I31" s="271"/>
-      <c r="J31" s="271"/>
-      <c r="K31" s="271"/>
-      <c r="L31" s="271"/>
-      <c r="M31" s="271"/>
-      <c r="N31" s="271"/>
-      <c r="O31" s="271"/>
-      <c r="P31" s="271"/>
-      <c r="Q31" s="271"/>
-      <c r="R31" s="272"/>
+      <c r="I31" s="193">
+        <v>97.01</v>
+      </c>
+      <c r="J31" s="193">
+        <v>98.01</v>
+      </c>
+      <c r="K31" s="193"/>
+      <c r="L31" s="193"/>
+      <c r="M31" s="193"/>
+      <c r="N31" s="193"/>
+      <c r="O31" s="193"/>
+      <c r="P31" s="193"/>
+      <c r="Q31" s="193"/>
+      <c r="R31" s="194"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="210" t="s">
+      <c r="A32" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="211"/>
-      <c r="C32" s="211"/>
-      <c r="D32" s="212"/>
+      <c r="B32" s="261"/>
+      <c r="C32" s="261"/>
+      <c r="D32" s="262"/>
       <c r="E32" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="F32" s="273">
+      <c r="F32" s="195">
         <v>177.77</v>
       </c>
-      <c r="G32" s="273">
-        <v>175.56</v>
-      </c>
-      <c r="H32" s="273">
+      <c r="G32" s="195">
+        <v>111.57</v>
+      </c>
+      <c r="H32" s="195">
         <v>164.32</v>
       </c>
-      <c r="I32" s="273"/>
-      <c r="J32" s="273"/>
-      <c r="K32" s="273"/>
-      <c r="L32" s="273"/>
-      <c r="M32" s="273"/>
-      <c r="N32" s="273"/>
-      <c r="O32" s="273"/>
-      <c r="P32" s="273"/>
-      <c r="Q32" s="273"/>
-      <c r="R32" s="274"/>
+      <c r="I32" s="195">
+        <v>113.68</v>
+      </c>
+      <c r="J32" s="195">
+        <v>111.59</v>
+      </c>
+      <c r="K32" s="195"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="195"/>
+      <c r="N32" s="195"/>
+      <c r="O32" s="195"/>
+      <c r="P32" s="195"/>
+      <c r="Q32" s="195"/>
+      <c r="R32" s="196"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="258" t="s">
+      <c r="A33" s="263" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="259"/>
-      <c r="C33" s="259"/>
-      <c r="D33" s="260"/>
-      <c r="E33" s="261" t="s">
+      <c r="B33" s="264"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="265"/>
+      <c r="E33" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="F33" s="275">
+      <c r="F33" s="197">
         <v>206.49</v>
       </c>
-      <c r="G33" s="275">
-        <v>196.9</v>
-      </c>
-      <c r="H33" s="275">
+      <c r="G33" s="197">
+        <v>140.86000000000001</v>
+      </c>
+      <c r="H33" s="197">
         <v>190.87</v>
       </c>
-      <c r="I33" s="275"/>
-      <c r="J33" s="275"/>
-      <c r="K33" s="275"/>
-      <c r="L33" s="275"/>
-      <c r="M33" s="275"/>
-      <c r="N33" s="275"/>
-      <c r="O33" s="275"/>
-      <c r="P33" s="275"/>
-      <c r="Q33" s="275"/>
-      <c r="R33" s="276"/>
-    </row>
-    <row r="34" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="195" t="s">
+      <c r="I33" s="197">
+        <v>139.91999999999999</v>
+      </c>
+      <c r="J33" s="197">
+        <v>140.9</v>
+      </c>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="197"/>
+      <c r="N33" s="197"/>
+      <c r="O33" s="197"/>
+      <c r="P33" s="197"/>
+      <c r="Q33" s="197"/>
+      <c r="R33" s="198"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="196"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="73" t="s">
+      <c r="B34" s="275"/>
+      <c r="C34" s="275"/>
+      <c r="D34" s="276"/>
+      <c r="E34" s="277" t="s">
         <v>279</v>
       </c>
-      <c r="F34" s="266">
+      <c r="F34" s="278">
         <v>62</v>
       </c>
-      <c r="G34" s="267">
-        <v>1699.2</v>
-      </c>
-      <c r="H34" s="267">
-        <v>1721</v>
-      </c>
-      <c r="I34" s="267"/>
-      <c r="J34" s="267"/>
-      <c r="K34" s="267"/>
-      <c r="L34" s="267"/>
-      <c r="M34" s="267"/>
-      <c r="N34" s="267"/>
-      <c r="O34" s="267"/>
-      <c r="P34" s="267"/>
-      <c r="Q34" s="267"/>
-      <c r="R34" s="268"/>
-    </row>
-    <row r="35" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="G34" s="279">
+        <v>1139</v>
+      </c>
+      <c r="H34" s="279">
+        <v>1137</v>
+      </c>
+      <c r="I34" s="279">
+        <v>1134</v>
+      </c>
+      <c r="J34" s="279">
+        <v>1138</v>
+      </c>
+      <c r="K34" s="279"/>
+      <c r="L34" s="279"/>
+      <c r="M34" s="279"/>
+      <c r="N34" s="279"/>
+      <c r="O34" s="279"/>
+      <c r="P34" s="279"/>
+      <c r="Q34" s="279"/>
+      <c r="R34" s="280"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="263" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" s="264"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="265"/>
+      <c r="E35" s="286"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="286">
+        <v>7</v>
+      </c>
+      <c r="H35" s="286">
+        <v>7</v>
+      </c>
+      <c r="I35" s="286">
+        <v>7</v>
+      </c>
+      <c r="J35" s="286">
+        <v>7</v>
+      </c>
+      <c r="K35" s="286"/>
+      <c r="L35" s="286"/>
+      <c r="M35" s="286"/>
+      <c r="N35" s="286"/>
+      <c r="O35" s="286"/>
+      <c r="P35" s="286"/>
+      <c r="Q35" s="286"/>
+      <c r="R35" s="287"/>
+    </row>
+    <row r="36" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="281" t="s">
+        <v>291</v>
+      </c>
+      <c r="B36" s="282"/>
+      <c r="C36" s="282"/>
+      <c r="D36" s="283"/>
+      <c r="E36" s="284"/>
+      <c r="F36" s="284"/>
+      <c r="G36" s="284">
+        <v>241.05930000000001</v>
+      </c>
+      <c r="H36" s="284">
+        <v>259.05520000000001</v>
+      </c>
+      <c r="I36" s="284">
+        <v>199.0592</v>
+      </c>
+      <c r="J36" s="288">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="K36" s="284"/>
+      <c r="L36" s="284"/>
+      <c r="M36" s="284"/>
+      <c r="N36" s="284"/>
+      <c r="O36" s="284"/>
+      <c r="P36" s="284"/>
+      <c r="Q36" s="284"/>
+      <c r="R36" s="285"/>
+    </row>
+    <row r="37" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A34:D34"/>
+  <mergeCells count="59">
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="O26:O27"/>
@@ -3581,6 +3871,8 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="R26:R27"/>
     <mergeCell ref="G26:G27"/>
@@ -3646,94 +3938,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
     </row>
     <row r="2" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="157" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="161" t="s">
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="163"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
@@ -3768,13 +4060,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="147">
+      <c r="C6" s="200">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -3800,9 +4092,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -3826,9 +4118,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -3852,9 +4144,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -3878,13 +4170,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="165">
+      <c r="C10" s="218">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -3910,9 +4202,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="218"/>
+      <c r="C11" s="218"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -3936,9 +4228,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="164"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="218"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -3962,9 +4254,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="164"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="218"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -3988,13 +4280,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="167">
+      <c r="C14" s="220">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -4020,9 +4312,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -4046,9 +4338,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -4072,9 +4364,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="166"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -4098,13 +4390,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="168" t="s">
+      <c r="A18" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="169">
+      <c r="C18" s="222">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -4130,9 +4422,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="168"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
+      <c r="A19" s="221"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="222"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -4156,9 +4448,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="168"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -4182,9 +4474,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="168"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
+      <c r="A21" s="221"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -4208,13 +4500,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="170" t="s">
+      <c r="A22" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="171">
+      <c r="C22" s="224">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -4240,9 +4532,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -4266,9 +4558,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -4292,9 +4584,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="224"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -4318,13 +4610,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="173">
+      <c r="C26" s="229">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -4350,9 +4642,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -4376,9 +4668,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="229"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -4402,9 +4694,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -4428,13 +4720,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="175">
+      <c r="C30" s="231">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -4460,9 +4752,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="174"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
+      <c r="A31" s="230"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -4486,9 +4778,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="174"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="231"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -4512,9 +4804,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="174"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -4538,13 +4830,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="242" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -4570,9 +4862,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="176"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="178"/>
+      <c r="A35" s="240"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="242"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -4596,9 +4888,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
+      <c r="A36" s="240"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="242"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -4622,9 +4914,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
+      <c r="A37" s="240"/>
+      <c r="B37" s="241"/>
+      <c r="C37" s="241"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -4648,13 +4940,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="181" t="s">
+      <c r="C38" s="227" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -4680,9 +4972,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="179"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="181"/>
+      <c r="A39" s="225"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="227"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -4706,9 +4998,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="179"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="181"/>
+      <c r="A40" s="225"/>
+      <c r="B40" s="226"/>
+      <c r="C40" s="227"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -4732,9 +5024,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="179"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
+      <c r="A41" s="225"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="226"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -4758,13 +5050,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="182" t="s">
+      <c r="A42" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="185" t="s">
+      <c r="C42" s="234" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -4790,9 +5082,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="182"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="185"/>
+      <c r="A43" s="232"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="234"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -4816,9 +5108,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="182"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="185"/>
+      <c r="A44" s="232"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="234"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -4842,9 +5134,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
+      <c r="A45" s="266"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -4868,60 +5160,60 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="186" t="s">
+      <c r="A46" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="189" t="str">
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="238" t="str">
         <f>E5</f>
         <v>v2.5.0</v>
       </c>
-      <c r="F46" s="189" t="str">
+      <c r="F46" s="238" t="str">
         <f>F5</f>
         <v>v2.6.0</v>
       </c>
-      <c r="G46" s="191"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="189"/>
-      <c r="J46" s="189"/>
-      <c r="K46" s="191"/>
-      <c r="L46" s="191"/>
-      <c r="M46" s="191"/>
-      <c r="N46" s="191"/>
-      <c r="O46" s="191"/>
-      <c r="P46" s="191"/>
-      <c r="Q46" s="191"/>
-      <c r="R46" s="193"/>
+      <c r="G46" s="267"/>
+      <c r="H46" s="267"/>
+      <c r="I46" s="238"/>
+      <c r="J46" s="238"/>
+      <c r="K46" s="267"/>
+      <c r="L46" s="267"/>
+      <c r="M46" s="267"/>
+      <c r="N46" s="267"/>
+      <c r="O46" s="267"/>
+      <c r="P46" s="267"/>
+      <c r="Q46" s="267"/>
+      <c r="R46" s="269"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="186"/>
-      <c r="B47" s="187"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="192"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="190"/>
-      <c r="K47" s="192"/>
-      <c r="L47" s="192"/>
-      <c r="M47" s="192"/>
-      <c r="N47" s="192"/>
-      <c r="O47" s="192"/>
-      <c r="P47" s="192"/>
-      <c r="Q47" s="192"/>
-      <c r="R47" s="194"/>
+      <c r="A47" s="235"/>
+      <c r="B47" s="236"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="239"/>
+      <c r="F47" s="239"/>
+      <c r="G47" s="268"/>
+      <c r="H47" s="268"/>
+      <c r="I47" s="239"/>
+      <c r="J47" s="239"/>
+      <c r="K47" s="268"/>
+      <c r="L47" s="268"/>
+      <c r="M47" s="268"/>
+      <c r="N47" s="268"/>
+      <c r="O47" s="268"/>
+      <c r="P47" s="268"/>
+      <c r="Q47" s="268"/>
+      <c r="R47" s="270"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="198" t="s">
+      <c r="A48" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="199"/>
-      <c r="D48" s="200"/>
+      <c r="B48" s="249"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="250"/>
       <c r="E48" s="65" t="s">
         <v>34</v>
       </c>
@@ -4942,12 +5234,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="201" t="s">
+      <c r="A49" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="202"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="203"/>
+      <c r="B49" s="252"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="253"/>
       <c r="E49" s="63" t="s">
         <v>62</v>
       </c>
@@ -4968,12 +5260,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="204" t="s">
+      <c r="A50" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="206"/>
+      <c r="B50" s="255"/>
+      <c r="C50" s="255"/>
+      <c r="D50" s="256"/>
       <c r="E50" s="67" t="s">
         <v>262</v>
       </c>
@@ -4994,12 +5286,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="207" t="s">
+      <c r="A51" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="208"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="209"/>
+      <c r="B51" s="258"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="259"/>
       <c r="E51" s="69" t="s">
         <v>263</v>
       </c>
@@ -5020,12 +5312,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="210" t="s">
+      <c r="A52" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="211"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="212"/>
+      <c r="B52" s="261"/>
+      <c r="C52" s="261"/>
+      <c r="D52" s="262"/>
       <c r="E52" s="71" t="s">
         <v>265</v>
       </c>
@@ -5046,12 +5338,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="195" t="s">
+      <c r="A53" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="196"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="197"/>
+      <c r="B53" s="246"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="247"/>
       <c r="E53" s="73" t="s">
         <v>264</v>
       </c>
@@ -5151,94 +5443,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
     </row>
     <row r="2" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="157" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="213" t="s">
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="163"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
@@ -5277,13 +5569,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="147">
+      <c r="C6" s="200">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -5313,9 +5605,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -5343,9 +5635,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -5373,9 +5665,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -5403,13 +5695,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="165">
+      <c r="C10" s="218">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -5439,9 +5731,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="218"/>
+      <c r="C11" s="218"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -5469,9 +5761,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="164"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="218"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -5499,9 +5791,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="164"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="218"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -5529,13 +5821,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="167">
+      <c r="C14" s="220">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -5565,9 +5857,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -5595,9 +5887,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -5625,9 +5917,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="166"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -5655,13 +5947,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="168" t="s">
+      <c r="A18" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="169">
+      <c r="C18" s="222">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -5691,9 +5983,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="168"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
+      <c r="A19" s="221"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="222"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -5721,9 +6013,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="168"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -5751,9 +6043,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="168"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
+      <c r="A21" s="221"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -5781,13 +6073,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="170" t="s">
+      <c r="A22" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="171">
+      <c r="C22" s="224">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -5817,9 +6109,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -5847,9 +6139,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -5877,9 +6169,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="224"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -5907,13 +6199,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="173">
+      <c r="C26" s="229">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -5943,9 +6235,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -5973,9 +6265,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="229"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -6003,9 +6295,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -6033,13 +6325,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="175">
+      <c r="C30" s="231">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -6069,9 +6361,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="174"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
+      <c r="A31" s="230"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -6099,9 +6391,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="174"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="231"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -6129,9 +6421,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="174"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -6159,13 +6451,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="242" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -6195,9 +6487,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="176"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="178"/>
+      <c r="A35" s="240"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="242"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -6225,9 +6517,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
+      <c r="A36" s="240"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="242"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -6255,9 +6547,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
+      <c r="A37" s="240"/>
+      <c r="B37" s="241"/>
+      <c r="C37" s="241"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -6285,13 +6577,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="181" t="s">
+      <c r="C38" s="227" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -6321,9 +6613,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="179"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="181"/>
+      <c r="A39" s="225"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="227"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -6351,9 +6643,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="179"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="181"/>
+      <c r="A40" s="225"/>
+      <c r="B40" s="226"/>
+      <c r="C40" s="227"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -6381,9 +6673,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="179"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
+      <c r="A41" s="225"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="226"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -6411,13 +6703,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="182" t="s">
+      <c r="A42" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="185" t="s">
+      <c r="C42" s="234" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -6447,9 +6739,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="182"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="185"/>
+      <c r="A43" s="232"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="234"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -6477,9 +6769,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="182"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="185"/>
+      <c r="A44" s="232"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="234"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -6507,9 +6799,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
+      <c r="A45" s="266"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -6537,72 +6829,72 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="186" t="s">
+      <c r="A46" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="189">
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="238">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="F46" s="189">
+      <c r="F46" s="238">
         <f t="shared" ref="F46:J46" si="0">F5</f>
         <v>0</v>
       </c>
-      <c r="G46" s="189" t="str">
+      <c r="G46" s="238" t="str">
         <f t="shared" si="0"/>
         <v>v2.3.1</v>
       </c>
-      <c r="H46" s="189" t="str">
+      <c r="H46" s="238" t="str">
         <f t="shared" si="0"/>
         <v>v2.4.0</v>
       </c>
-      <c r="I46" s="189" t="str">
+      <c r="I46" s="238" t="str">
         <f t="shared" si="0"/>
         <v>v2.5.0</v>
       </c>
-      <c r="J46" s="189" t="str">
+      <c r="J46" s="238" t="str">
         <f t="shared" si="0"/>
         <v>v2.6.0</v>
       </c>
-      <c r="K46" s="191"/>
-      <c r="L46" s="191"/>
-      <c r="M46" s="191"/>
-      <c r="N46" s="191"/>
-      <c r="O46" s="191"/>
-      <c r="P46" s="191"/>
-      <c r="Q46" s="191"/>
-      <c r="R46" s="193"/>
+      <c r="K46" s="267"/>
+      <c r="L46" s="267"/>
+      <c r="M46" s="267"/>
+      <c r="N46" s="267"/>
+      <c r="O46" s="267"/>
+      <c r="P46" s="267"/>
+      <c r="Q46" s="267"/>
+      <c r="R46" s="269"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="186"/>
-      <c r="B47" s="187"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="190"/>
-      <c r="H47" s="190"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="190"/>
-      <c r="K47" s="192"/>
-      <c r="L47" s="192"/>
-      <c r="M47" s="192"/>
-      <c r="N47" s="192"/>
-      <c r="O47" s="192"/>
-      <c r="P47" s="192"/>
-      <c r="Q47" s="192"/>
-      <c r="R47" s="194"/>
+      <c r="A47" s="235"/>
+      <c r="B47" s="236"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="239"/>
+      <c r="F47" s="239"/>
+      <c r="G47" s="239"/>
+      <c r="H47" s="239"/>
+      <c r="I47" s="239"/>
+      <c r="J47" s="239"/>
+      <c r="K47" s="268"/>
+      <c r="L47" s="268"/>
+      <c r="M47" s="268"/>
+      <c r="N47" s="268"/>
+      <c r="O47" s="268"/>
+      <c r="P47" s="268"/>
+      <c r="Q47" s="268"/>
+      <c r="R47" s="270"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="198" t="s">
+      <c r="A48" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="199"/>
-      <c r="D48" s="200"/>
+      <c r="B48" s="249"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="250"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65" t="s">
@@ -6627,12 +6919,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="201" t="s">
+      <c r="A49" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="202"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="203"/>
+      <c r="B49" s="252"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="253"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63" t="s">
@@ -6657,12 +6949,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="204" t="s">
+      <c r="A50" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="206"/>
+      <c r="B50" s="255"/>
+      <c r="C50" s="255"/>
+      <c r="D50" s="256"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67" t="s">
@@ -6687,12 +6979,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="207" t="s">
+      <c r="A51" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="208"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="209"/>
+      <c r="B51" s="258"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="259"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69" t="s">
@@ -6717,12 +7009,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="210" t="s">
+      <c r="A52" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="211"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="212"/>
+      <c r="B52" s="261"/>
+      <c r="C52" s="261"/>
+      <c r="D52" s="262"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71" t="s">
@@ -6747,12 +7039,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="195" t="s">
+      <c r="A53" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="196"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="197"/>
+      <c r="B53" s="246"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="247"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73" t="s">
@@ -6856,94 +7148,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
     </row>
     <row r="2" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="157" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="161" t="s">
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="163"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
@@ -6978,13 +7270,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="147">
+      <c r="C6" s="200">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -7010,9 +7302,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -7036,9 +7328,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -7062,9 +7354,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -7088,13 +7380,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="165">
+      <c r="C10" s="218">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -7120,9 +7412,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="218"/>
+      <c r="C11" s="218"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -7146,9 +7438,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="164"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="218"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -7172,9 +7464,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="164"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="218"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -7198,13 +7490,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="167">
+      <c r="C14" s="220">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -7230,9 +7522,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -7256,9 +7548,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -7282,9 +7574,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="166"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -7308,13 +7600,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="168" t="s">
+      <c r="A18" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="169">
+      <c r="C18" s="222">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -7340,9 +7632,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="168"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
+      <c r="A19" s="221"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="222"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -7366,9 +7658,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="168"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -7392,9 +7684,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="168"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
+      <c r="A21" s="221"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -7418,13 +7710,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="170" t="s">
+      <c r="A22" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="171">
+      <c r="C22" s="224">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -7450,9 +7742,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -7476,9 +7768,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -7502,9 +7794,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="224"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -7528,13 +7820,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="173">
+      <c r="C26" s="229">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -7560,9 +7852,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -7586,9 +7878,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="229"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -7612,9 +7904,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -7638,13 +7930,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="175">
+      <c r="C30" s="231">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -7670,9 +7962,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="174"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
+      <c r="A31" s="230"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -7696,9 +7988,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="174"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="231"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -7722,9 +8014,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="174"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -7748,13 +8040,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="242" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -7780,9 +8072,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="176"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="178"/>
+      <c r="A35" s="240"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="242"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -7806,9 +8098,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
+      <c r="A36" s="240"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="242"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -7832,9 +8124,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
+      <c r="A37" s="240"/>
+      <c r="B37" s="241"/>
+      <c r="C37" s="241"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -7858,13 +8150,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="181" t="s">
+      <c r="C38" s="227" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -7890,9 +8182,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="179"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="181"/>
+      <c r="A39" s="225"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="227"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -7916,9 +8208,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="179"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="181"/>
+      <c r="A40" s="225"/>
+      <c r="B40" s="226"/>
+      <c r="C40" s="227"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -7942,9 +8234,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="179"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
+      <c r="A41" s="225"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="226"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -7968,13 +8260,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="182" t="s">
+      <c r="A42" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="185">
+      <c r="C42" s="234">
         <v>2048</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -8000,9 +8292,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="182"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="185"/>
+      <c r="A43" s="232"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="234"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -8026,9 +8318,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="182"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="185"/>
+      <c r="A44" s="232"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="234"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -8052,9 +8344,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
+      <c r="A45" s="266"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -8078,60 +8370,60 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="186" t="s">
+      <c r="A46" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="189" t="str">
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="238" t="str">
         <f>E5</f>
         <v>v2.5.0</v>
       </c>
-      <c r="F46" s="189" t="str">
+      <c r="F46" s="238" t="str">
         <f>F5</f>
         <v>v2.6.0</v>
       </c>
-      <c r="G46" s="191"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="189"/>
-      <c r="J46" s="189"/>
-      <c r="K46" s="191"/>
-      <c r="L46" s="191"/>
-      <c r="M46" s="191"/>
-      <c r="N46" s="191"/>
-      <c r="O46" s="191"/>
-      <c r="P46" s="191"/>
-      <c r="Q46" s="191"/>
-      <c r="R46" s="193"/>
+      <c r="G46" s="267"/>
+      <c r="H46" s="267"/>
+      <c r="I46" s="238"/>
+      <c r="J46" s="238"/>
+      <c r="K46" s="267"/>
+      <c r="L46" s="267"/>
+      <c r="M46" s="267"/>
+      <c r="N46" s="267"/>
+      <c r="O46" s="267"/>
+      <c r="P46" s="267"/>
+      <c r="Q46" s="267"/>
+      <c r="R46" s="269"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="186"/>
-      <c r="B47" s="187"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="192"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="190"/>
-      <c r="K47" s="192"/>
-      <c r="L47" s="192"/>
-      <c r="M47" s="192"/>
-      <c r="N47" s="192"/>
-      <c r="O47" s="192"/>
-      <c r="P47" s="192"/>
-      <c r="Q47" s="192"/>
-      <c r="R47" s="194"/>
+      <c r="A47" s="235"/>
+      <c r="B47" s="236"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="239"/>
+      <c r="F47" s="239"/>
+      <c r="G47" s="268"/>
+      <c r="H47" s="268"/>
+      <c r="I47" s="239"/>
+      <c r="J47" s="239"/>
+      <c r="K47" s="268"/>
+      <c r="L47" s="268"/>
+      <c r="M47" s="268"/>
+      <c r="N47" s="268"/>
+      <c r="O47" s="268"/>
+      <c r="P47" s="268"/>
+      <c r="Q47" s="268"/>
+      <c r="R47" s="270"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="198" t="s">
+      <c r="A48" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="199"/>
-      <c r="D48" s="200"/>
+      <c r="B48" s="249"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="250"/>
       <c r="E48" s="65" t="s">
         <v>53</v>
       </c>
@@ -8152,12 +8444,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="201" t="s">
+      <c r="A49" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="202"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="203"/>
+      <c r="B49" s="252"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="253"/>
       <c r="E49" s="63" t="s">
         <v>113</v>
       </c>
@@ -8178,12 +8470,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="204" t="s">
+      <c r="A50" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="206"/>
+      <c r="B50" s="255"/>
+      <c r="C50" s="255"/>
+      <c r="D50" s="256"/>
       <c r="E50" s="67" t="s">
         <v>114</v>
       </c>
@@ -8204,12 +8496,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="207" t="s">
+      <c r="A51" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="208"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="209"/>
+      <c r="B51" s="258"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="259"/>
       <c r="E51" s="69" t="s">
         <v>115</v>
       </c>
@@ -8230,12 +8522,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="210" t="s">
+      <c r="A52" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="211"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="212"/>
+      <c r="B52" s="261"/>
+      <c r="C52" s="261"/>
+      <c r="D52" s="262"/>
       <c r="E52" s="71" t="s">
         <v>43</v>
       </c>
@@ -8256,12 +8548,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="195" t="s">
+      <c r="A53" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="196"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="197"/>
+      <c r="B53" s="246"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="247"/>
       <c r="E53" s="73" t="s">
         <v>116</v>
       </c>
@@ -8360,94 +8652,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
     </row>
     <row r="2" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="157" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="161" t="s">
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="163"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
@@ -8480,13 +8772,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="147">
+      <c r="C6" s="200">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -8510,9 +8802,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -8534,9 +8826,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -8558,9 +8850,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -8582,13 +8874,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="165">
+      <c r="C10" s="218">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -8612,9 +8904,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="218"/>
+      <c r="C11" s="218"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -8636,9 +8928,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="164"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="218"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -8660,9 +8952,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="164"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="218"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -8684,13 +8976,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="167">
+      <c r="C14" s="220">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -8714,9 +9006,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -8738,9 +9030,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -8762,9 +9054,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="166"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -8786,13 +9078,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="168" t="s">
+      <c r="A18" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="169">
+      <c r="C18" s="222">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -8816,9 +9108,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="168"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
+      <c r="A19" s="221"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="222"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -8840,9 +9132,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="168"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -8864,9 +9156,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="168"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
+      <c r="A21" s="221"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -8888,13 +9180,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="170" t="s">
+      <c r="A22" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="171">
+      <c r="C22" s="224">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -8918,9 +9210,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -8942,9 +9234,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -8966,9 +9258,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="224"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -8990,13 +9282,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="173">
+      <c r="C26" s="229">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -9020,9 +9312,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -9044,9 +9336,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="229"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -9068,9 +9360,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -9092,13 +9384,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="175">
+      <c r="C30" s="231">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -9122,9 +9414,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="174"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
+      <c r="A31" s="230"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -9146,9 +9438,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="174"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="231"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -9170,9 +9462,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="174"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -9194,13 +9486,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="242" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -9224,9 +9516,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="176"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="178"/>
+      <c r="A35" s="240"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="242"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -9248,9 +9540,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
+      <c r="A36" s="240"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="242"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -9272,9 +9564,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
+      <c r="A37" s="240"/>
+      <c r="B37" s="241"/>
+      <c r="C37" s="241"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -9296,13 +9588,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="181" t="s">
+      <c r="C38" s="227" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -9326,9 +9618,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="179"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="181"/>
+      <c r="A39" s="225"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="227"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -9350,9 +9642,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="179"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="181"/>
+      <c r="A40" s="225"/>
+      <c r="B40" s="226"/>
+      <c r="C40" s="227"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -9374,9 +9666,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="179"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
+      <c r="A41" s="225"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="226"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -9398,13 +9690,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="182" t="s">
+      <c r="A42" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="185" t="s">
+      <c r="C42" s="234" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -9428,9 +9720,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="182"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="185"/>
+      <c r="A43" s="232"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="234"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -9452,9 +9744,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="182"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="185"/>
+      <c r="A44" s="232"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="234"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -9476,9 +9768,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
+      <c r="A45" s="266"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -9500,57 +9792,57 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="186" t="s">
+      <c r="A46" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="189" t="str">
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="238" t="str">
         <f>E5</f>
         <v>v2.6.0</v>
       </c>
-      <c r="F46" s="191"/>
-      <c r="G46" s="191"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="189"/>
-      <c r="J46" s="191"/>
-      <c r="K46" s="191"/>
-      <c r="L46" s="191"/>
-      <c r="M46" s="191"/>
-      <c r="N46" s="191"/>
-      <c r="O46" s="191"/>
-      <c r="P46" s="191"/>
-      <c r="Q46" s="191"/>
-      <c r="R46" s="193"/>
+      <c r="F46" s="267"/>
+      <c r="G46" s="267"/>
+      <c r="H46" s="267"/>
+      <c r="I46" s="238"/>
+      <c r="J46" s="267"/>
+      <c r="K46" s="267"/>
+      <c r="L46" s="267"/>
+      <c r="M46" s="267"/>
+      <c r="N46" s="267"/>
+      <c r="O46" s="267"/>
+      <c r="P46" s="267"/>
+      <c r="Q46" s="267"/>
+      <c r="R46" s="269"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="186"/>
-      <c r="B47" s="187"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="192"/>
-      <c r="G47" s="192"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="192"/>
-      <c r="K47" s="192"/>
-      <c r="L47" s="192"/>
-      <c r="M47" s="192"/>
-      <c r="N47" s="192"/>
-      <c r="O47" s="192"/>
-      <c r="P47" s="192"/>
-      <c r="Q47" s="192"/>
-      <c r="R47" s="194"/>
+      <c r="A47" s="235"/>
+      <c r="B47" s="236"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="239"/>
+      <c r="F47" s="268"/>
+      <c r="G47" s="268"/>
+      <c r="H47" s="268"/>
+      <c r="I47" s="239"/>
+      <c r="J47" s="268"/>
+      <c r="K47" s="268"/>
+      <c r="L47" s="268"/>
+      <c r="M47" s="268"/>
+      <c r="N47" s="268"/>
+      <c r="O47" s="268"/>
+      <c r="P47" s="268"/>
+      <c r="Q47" s="268"/>
+      <c r="R47" s="270"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="198" t="s">
+      <c r="A48" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="199"/>
-      <c r="D48" s="200"/>
+      <c r="B48" s="249"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="250"/>
       <c r="E48" s="65" t="s">
         <v>92</v>
       </c>
@@ -9569,12 +9861,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="201" t="s">
+      <c r="A49" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="202"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="203"/>
+      <c r="B49" s="252"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="253"/>
       <c r="E49" s="63" t="s">
         <v>56</v>
       </c>
@@ -9593,12 +9885,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="204" t="s">
+      <c r="A50" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="206"/>
+      <c r="B50" s="255"/>
+      <c r="C50" s="255"/>
+      <c r="D50" s="256"/>
       <c r="E50" s="67" t="s">
         <v>214</v>
       </c>
@@ -9617,12 +9909,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="207" t="s">
+      <c r="A51" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="208"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="209"/>
+      <c r="B51" s="258"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="259"/>
       <c r="E51" s="69" t="s">
         <v>215</v>
       </c>
@@ -9641,12 +9933,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="210" t="s">
+      <c r="A52" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="211"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="212"/>
+      <c r="B52" s="261"/>
+      <c r="C52" s="261"/>
+      <c r="D52" s="262"/>
       <c r="E52" s="71" t="s">
         <v>216</v>
       </c>
@@ -9665,12 +9957,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="195" t="s">
+      <c r="A53" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="196"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="197"/>
+      <c r="B53" s="246"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="247"/>
       <c r="E53" s="73" t="s">
         <v>217</v>
       </c>
@@ -9767,94 +10059,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
     </row>
     <row r="2" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="157" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="161" t="s">
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="163"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
@@ -9887,13 +10179,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="147">
+      <c r="C6" s="200">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -9917,9 +10209,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -9941,9 +10233,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -9965,9 +10257,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -9989,13 +10281,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="165">
+      <c r="C10" s="218">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -10019,9 +10311,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="218"/>
+      <c r="C11" s="218"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -10043,9 +10335,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="164"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="218"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -10067,9 +10359,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="164"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="218"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -10091,13 +10383,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="167">
+      <c r="C14" s="220">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -10121,9 +10413,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -10145,9 +10437,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -10169,9 +10461,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="166"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -10193,13 +10485,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="168" t="s">
+      <c r="A18" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="169">
+      <c r="C18" s="222">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -10223,9 +10515,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="168"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
+      <c r="A19" s="221"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="222"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -10247,9 +10539,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="168"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -10271,9 +10563,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="168"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
+      <c r="A21" s="221"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -10295,13 +10587,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="170" t="s">
+      <c r="A22" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="171">
+      <c r="C22" s="224">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -10325,9 +10617,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -10349,9 +10641,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -10373,9 +10665,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="224"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -10397,13 +10689,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="173">
+      <c r="C26" s="229">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -10427,9 +10719,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -10451,9 +10743,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="229"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -10475,9 +10767,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -10499,13 +10791,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="175">
+      <c r="C30" s="231">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -10529,9 +10821,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="174"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
+      <c r="A31" s="230"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -10553,9 +10845,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="174"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="231"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -10577,9 +10869,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="174"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -10601,13 +10893,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="242" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -10631,9 +10923,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="176"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="178"/>
+      <c r="A35" s="240"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="242"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -10655,9 +10947,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
+      <c r="A36" s="240"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="242"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -10679,9 +10971,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
+      <c r="A37" s="240"/>
+      <c r="B37" s="241"/>
+      <c r="C37" s="241"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -10703,13 +10995,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="181" t="s">
+      <c r="C38" s="227" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -10733,9 +11025,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="179"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="181"/>
+      <c r="A39" s="225"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="227"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -10757,9 +11049,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="179"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="181"/>
+      <c r="A40" s="225"/>
+      <c r="B40" s="226"/>
+      <c r="C40" s="227"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -10781,9 +11073,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="179"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
+      <c r="A41" s="225"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="226"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -10805,13 +11097,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="182" t="s">
+      <c r="A42" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="185" t="s">
+      <c r="C42" s="234" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -10835,9 +11127,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="182"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="185"/>
+      <c r="A43" s="232"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="234"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -10859,9 +11151,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="182"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="185"/>
+      <c r="A44" s="232"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="234"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -10883,9 +11175,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
+      <c r="A45" s="266"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -10907,57 +11199,57 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="186" t="s">
+      <c r="A46" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="189" t="str">
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="238" t="str">
         <f>E5</f>
         <v>v2.6.0</v>
       </c>
-      <c r="F46" s="189"/>
-      <c r="G46" s="189"/>
-      <c r="H46" s="189"/>
-      <c r="I46" s="189"/>
-      <c r="J46" s="189"/>
-      <c r="K46" s="189"/>
-      <c r="L46" s="189"/>
-      <c r="M46" s="189"/>
-      <c r="N46" s="189"/>
-      <c r="O46" s="191"/>
-      <c r="P46" s="191"/>
-      <c r="Q46" s="191"/>
-      <c r="R46" s="193"/>
+      <c r="F46" s="238"/>
+      <c r="G46" s="238"/>
+      <c r="H46" s="238"/>
+      <c r="I46" s="238"/>
+      <c r="J46" s="238"/>
+      <c r="K46" s="238"/>
+      <c r="L46" s="238"/>
+      <c r="M46" s="238"/>
+      <c r="N46" s="238"/>
+      <c r="O46" s="267"/>
+      <c r="P46" s="267"/>
+      <c r="Q46" s="267"/>
+      <c r="R46" s="269"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="186"/>
-      <c r="B47" s="187"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="190"/>
-      <c r="H47" s="190"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="190"/>
-      <c r="K47" s="190"/>
-      <c r="L47" s="190"/>
-      <c r="M47" s="190"/>
-      <c r="N47" s="190"/>
-      <c r="O47" s="192"/>
-      <c r="P47" s="192"/>
-      <c r="Q47" s="192"/>
-      <c r="R47" s="194"/>
+      <c r="A47" s="235"/>
+      <c r="B47" s="236"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="239"/>
+      <c r="F47" s="239"/>
+      <c r="G47" s="239"/>
+      <c r="H47" s="239"/>
+      <c r="I47" s="239"/>
+      <c r="J47" s="239"/>
+      <c r="K47" s="239"/>
+      <c r="L47" s="239"/>
+      <c r="M47" s="239"/>
+      <c r="N47" s="239"/>
+      <c r="O47" s="268"/>
+      <c r="P47" s="268"/>
+      <c r="Q47" s="268"/>
+      <c r="R47" s="270"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="198" t="s">
+      <c r="A48" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="199"/>
-      <c r="D48" s="200"/>
+      <c r="B48" s="249"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="250"/>
       <c r="E48" s="65" t="s">
         <v>194</v>
       </c>
@@ -10976,12 +11268,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="201" t="s">
+      <c r="A49" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="202"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="203"/>
+      <c r="B49" s="252"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="253"/>
       <c r="E49" s="63" t="s">
         <v>195</v>
       </c>
@@ -11000,12 +11292,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="204" t="s">
+      <c r="A50" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="206"/>
+      <c r="B50" s="255"/>
+      <c r="C50" s="255"/>
+      <c r="D50" s="256"/>
       <c r="E50" s="67" t="s">
         <v>196</v>
       </c>
@@ -11024,12 +11316,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="207" t="s">
+      <c r="A51" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="208"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="209"/>
+      <c r="B51" s="258"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="259"/>
       <c r="E51" s="69" t="s">
         <v>197</v>
       </c>
@@ -11048,12 +11340,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="210" t="s">
+      <c r="A52" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="211"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="212"/>
+      <c r="B52" s="261"/>
+      <c r="C52" s="261"/>
+      <c r="D52" s="262"/>
       <c r="E52" s="71" t="s">
         <v>198</v>
       </c>
@@ -11072,12 +11364,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="195" t="s">
+      <c r="A53" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="196"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="197"/>
+      <c r="B53" s="246"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="247"/>
       <c r="E53" s="73" t="s">
         <v>199</v>
       </c>
@@ -11174,94 +11466,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
     </row>
     <row r="2" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="157" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="161" t="s">
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="163"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
@@ -11294,13 +11586,13 @@
       <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="147">
+      <c r="C6" s="200">
         <v>8</v>
       </c>
       <c r="D6" s="111" t="s">
@@ -11322,9 +11614,9 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="112" t="s">
         <v>19</v>
       </c>
@@ -11344,9 +11636,9 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
       <c r="D8" s="112" t="s">
         <v>21</v>
       </c>
@@ -11366,9 +11658,9 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="113" t="s">
         <v>22</v>
       </c>
@@ -11388,13 +11680,13 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="165">
+      <c r="C10" s="218">
         <v>8</v>
       </c>
       <c r="D10" s="114" t="s">
@@ -11416,9 +11708,9 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="218"/>
+      <c r="C11" s="218"/>
       <c r="D11" s="115" t="s">
         <v>19</v>
       </c>
@@ -11438,9 +11730,9 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="164"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="218"/>
       <c r="D12" s="115" t="s">
         <v>21</v>
       </c>
@@ -11460,9 +11752,9 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="164"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="218"/>
       <c r="D13" s="116" t="s">
         <v>22</v>
       </c>
@@ -11482,13 +11774,13 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="167">
+      <c r="C14" s="220">
         <v>16</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -11510,9 +11802,9 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
       <c r="D15" s="118" t="s">
         <v>19</v>
       </c>
@@ -11532,9 +11824,9 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
       <c r="D16" s="118" t="s">
         <v>21</v>
       </c>
@@ -11554,9 +11846,9 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="166"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
       <c r="D17" s="119" t="s">
         <v>22</v>
       </c>
@@ -11576,13 +11868,13 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="168" t="s">
+      <c r="A18" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="169">
+      <c r="C18" s="222">
         <v>16</v>
       </c>
       <c r="D18" s="120" t="s">
@@ -11604,9 +11896,9 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="168"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
+      <c r="A19" s="221"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="222"/>
       <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
@@ -11626,9 +11918,9 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="168"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="121" t="s">
         <v>21</v>
       </c>
@@ -11648,9 +11940,9 @@
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="168"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
+      <c r="A21" s="221"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
       <c r="D21" s="122" t="s">
         <v>22</v>
       </c>
@@ -11670,13 +11962,13 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="170" t="s">
+      <c r="A22" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="171">
+      <c r="C22" s="224">
         <v>32</v>
       </c>
       <c r="D22" s="123" t="s">
@@ -11698,9 +11990,9 @@
       <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
       <c r="D23" s="124" t="s">
         <v>19</v>
       </c>
@@ -11720,9 +12012,9 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="124" t="s">
         <v>21</v>
       </c>
@@ -11742,9 +12034,9 @@
       <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="224"/>
       <c r="D25" s="125" t="s">
         <v>22</v>
       </c>
@@ -11764,13 +12056,13 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="173">
+      <c r="C26" s="229">
         <v>32</v>
       </c>
       <c r="D26" s="126" t="s">
@@ -11792,9 +12084,9 @@
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="127" t="s">
         <v>19</v>
       </c>
@@ -11814,9 +12106,9 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="229"/>
       <c r="D28" s="127" t="s">
         <v>21</v>
       </c>
@@ -11836,9 +12128,9 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="128" t="s">
         <v>22</v>
       </c>
@@ -11858,13 +12150,13 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="175">
+      <c r="C30" s="231">
         <v>32</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -11886,9 +12178,9 @@
       <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="174"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
+      <c r="A31" s="230"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="130" t="s">
         <v>19</v>
       </c>
@@ -11908,9 +12200,9 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="174"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="231"/>
       <c r="D32" s="130" t="s">
         <v>21</v>
       </c>
@@ -11930,9 +12222,9 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="174"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="131" t="s">
         <v>22</v>
       </c>
@@ -11952,13 +12244,13 @@
       <c r="R33" s="55"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="242" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -11980,9 +12272,9 @@
       <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="176"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="178"/>
+      <c r="A35" s="240"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="242"/>
       <c r="D35" s="133" t="s">
         <v>19</v>
       </c>
@@ -12002,9 +12294,9 @@
       <c r="R35" s="45"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
+      <c r="A36" s="240"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="242"/>
       <c r="D36" s="133" t="s">
         <v>21</v>
       </c>
@@ -12024,9 +12316,9 @@
       <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
+      <c r="A37" s="240"/>
+      <c r="B37" s="241"/>
+      <c r="C37" s="241"/>
       <c r="D37" s="134" t="s">
         <v>22</v>
       </c>
@@ -12046,13 +12338,13 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="181" t="s">
+      <c r="C38" s="227" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="135" t="s">
@@ -12074,9 +12366,9 @@
       <c r="R38" s="47"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="179"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="181"/>
+      <c r="A39" s="225"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="227"/>
       <c r="D39" s="136" t="s">
         <v>19</v>
       </c>
@@ -12096,9 +12388,9 @@
       <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="179"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="181"/>
+      <c r="A40" s="225"/>
+      <c r="B40" s="226"/>
+      <c r="C40" s="227"/>
       <c r="D40" s="136" t="s">
         <v>21</v>
       </c>
@@ -12118,9 +12410,9 @@
       <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="179"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
+      <c r="A41" s="225"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="226"/>
       <c r="D41" s="137" t="s">
         <v>22</v>
       </c>
@@ -12140,13 +12432,13 @@
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="182" t="s">
+      <c r="A42" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="185" t="s">
+      <c r="C42" s="234" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="138" t="s">
@@ -12168,9 +12460,9 @@
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="182"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="185"/>
+      <c r="A43" s="232"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="234"/>
       <c r="D43" s="139" t="s">
         <v>19</v>
       </c>
@@ -12190,9 +12482,9 @@
       <c r="R43" s="53"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="182"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="185"/>
+      <c r="A44" s="232"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="234"/>
       <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
@@ -12212,9 +12504,9 @@
       <c r="R44" s="53"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
+      <c r="A45" s="266"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="139" t="s">
         <v>22</v>
       </c>
@@ -12234,57 +12526,57 @@
       <c r="R45" s="53"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="186" t="s">
+      <c r="A46" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="214" t="str">
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="272" t="str">
         <f>E5</f>
         <v>v2.7.0</v>
       </c>
-      <c r="F46" s="214"/>
-      <c r="G46" s="214"/>
-      <c r="H46" s="214"/>
-      <c r="I46" s="214"/>
-      <c r="J46" s="214"/>
-      <c r="K46" s="214"/>
-      <c r="L46" s="214"/>
-      <c r="M46" s="214"/>
-      <c r="N46" s="214"/>
-      <c r="O46" s="191"/>
-      <c r="P46" s="191"/>
-      <c r="Q46" s="191"/>
-      <c r="R46" s="193"/>
+      <c r="F46" s="272"/>
+      <c r="G46" s="272"/>
+      <c r="H46" s="272"/>
+      <c r="I46" s="272"/>
+      <c r="J46" s="272"/>
+      <c r="K46" s="272"/>
+      <c r="L46" s="272"/>
+      <c r="M46" s="272"/>
+      <c r="N46" s="272"/>
+      <c r="O46" s="267"/>
+      <c r="P46" s="267"/>
+      <c r="Q46" s="267"/>
+      <c r="R46" s="269"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="186"/>
-      <c r="B47" s="187"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="215"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="215"/>
-      <c r="J47" s="215"/>
-      <c r="K47" s="215"/>
-      <c r="L47" s="215"/>
-      <c r="M47" s="215"/>
-      <c r="N47" s="215"/>
-      <c r="O47" s="192"/>
-      <c r="P47" s="192"/>
-      <c r="Q47" s="192"/>
-      <c r="R47" s="194"/>
+      <c r="A47" s="235"/>
+      <c r="B47" s="236"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="273"/>
+      <c r="F47" s="273"/>
+      <c r="G47" s="273"/>
+      <c r="H47" s="273"/>
+      <c r="I47" s="273"/>
+      <c r="J47" s="273"/>
+      <c r="K47" s="273"/>
+      <c r="L47" s="273"/>
+      <c r="M47" s="273"/>
+      <c r="N47" s="273"/>
+      <c r="O47" s="268"/>
+      <c r="P47" s="268"/>
+      <c r="Q47" s="268"/>
+      <c r="R47" s="270"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="198" t="s">
+      <c r="A48" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="199"/>
-      <c r="D48" s="200"/>
+      <c r="B48" s="249"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="250"/>
       <c r="E48" s="104"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
@@ -12301,12 +12593,12 @@
       <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="201" t="s">
+      <c r="A49" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="202"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="203"/>
+      <c r="B49" s="252"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="253"/>
       <c r="E49" s="105"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -12323,12 +12615,12 @@
       <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="204" t="s">
+      <c r="A50" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="206"/>
+      <c r="B50" s="255"/>
+      <c r="C50" s="255"/>
+      <c r="D50" s="256"/>
       <c r="E50" s="106"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -12345,12 +12637,12 @@
       <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="207" t="s">
+      <c r="A51" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="208"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="209"/>
+      <c r="B51" s="258"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="259"/>
       <c r="E51" s="107"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
@@ -12367,12 +12659,12 @@
       <c r="R51" s="70"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="210" t="s">
+      <c r="A52" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="211"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="212"/>
+      <c r="B52" s="261"/>
+      <c r="C52" s="261"/>
+      <c r="D52" s="262"/>
       <c r="E52" s="108"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -12389,12 +12681,12 @@
       <c r="R52" s="72"/>
     </row>
     <row r="53" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="195" t="s">
+      <c r="A53" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="196"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="197"/>
+      <c r="B53" s="246"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="247"/>
       <c r="E53" s="109"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
